--- a/Prototypes/Sorghum/BusterNoTillers.xlsx
+++ b/Prototypes/Sorghum/BusterNoTillers.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ApsimX\Prototypes\Sorghum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94C17EE0-D339-498E-9184-432474FBE31D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7080" windowHeight="14520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23250" windowHeight="11265"/>
   </bookViews>
   <sheets>
-    <sheet name="Apsim79HE1BusterNoTillers" sheetId="3" r:id="rId1"/>
+    <sheet name="Apsim79HE1BusterNoTillers" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Sorghum_HE1_Buster" localSheetId="0">Apsim79HE1BusterNoTillers!$A$1:$AV$141</definedName>
+    <definedName name="Sorghum_HE1_Buster" localSheetId="0">Apsim79HE1BusterNoTillers!$A$1:$BG$140</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,10 +27,21 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF02000000}" name="Sorghum_HE1_Buster2" type="6" refreshedVersion="5" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="Sorghum_HE1_Buster" type="6" refreshedVersion="5" background="1" saveData="1">
     <textPr codePage="850" firstRow="2" sourceFile="D:\Projects\_People\Crops\Sorghum\CanopyValidation\Hermitage\HE1-8\Sorghum_HE1_Buster.out" space="1" consecutive="1">
-      <textFields count="48">
+      <textFields count="59">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
         <textField/>
         <textField/>
         <textField/>
@@ -87,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="60">
   <si>
     <t>Date</t>
   </si>
@@ -230,6 +240,39 @@
     <t>cover_green</t>
   </si>
   <si>
+    <t>DeltaGreenWt</t>
+  </si>
+  <si>
+    <t>DeltaGreenN(1)</t>
+  </si>
+  <si>
+    <t>DeltaGreenN(2)</t>
+  </si>
+  <si>
+    <t>DeltaGreenN(3)</t>
+  </si>
+  <si>
+    <t>DeltaGreenN(4)</t>
+  </si>
+  <si>
+    <t>DeltaGreenN(5)</t>
+  </si>
+  <si>
+    <t>diffusion_supply_tot</t>
+  </si>
+  <si>
+    <t>n_diffusion_uptake</t>
+  </si>
+  <si>
+    <t>n_massflow_uptake</t>
+  </si>
+  <si>
+    <t>n_total_uptake</t>
+  </si>
+  <si>
+    <t>n_supply_soil</t>
+  </si>
+  <si>
     <t>SimulationName</t>
   </si>
   <si>
@@ -239,7 +282,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -290,7 +333,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Sorghum_HE1_Buster" connectionId="1" xr16:uid="{00000000-0016-0000-0200-000002000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Sorghum_HE1_Buster" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -555,8 +598,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AV140"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BG140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -600,11 +643,18 @@
     <col min="46" max="46" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="12" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="50" max="54" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="19" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -747,10 +797,43 @@
       <c r="AV1" t="s">
         <v>46</v>
       </c>
+      <c r="AW1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B2" s="1">
         <v>35439</v>
@@ -893,10 +976,43 @@
       <c r="AV2">
         <v>0</v>
       </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>0</v>
+      </c>
+      <c r="BB2">
+        <v>0</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BG2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B3" s="1">
         <v>35440</v>
@@ -1039,10 +1155,43 @@
       <c r="AV3">
         <v>0</v>
       </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B4" s="1">
         <v>35441</v>
@@ -1185,10 +1334,43 @@
       <c r="AV4">
         <v>0</v>
       </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B5" s="1">
         <v>35442</v>
@@ -1331,10 +1513,43 @@
       <c r="AV5">
         <v>0</v>
       </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5">
+        <v>1.45</v>
+      </c>
+      <c r="BD5">
+        <v>0</v>
+      </c>
+      <c r="BE5">
+        <v>0</v>
+      </c>
+      <c r="BF5">
+        <v>0</v>
+      </c>
+      <c r="BG5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B6" s="1">
         <v>35443</v>
@@ -1477,10 +1692,43 @@
       <c r="AV6">
         <v>0</v>
       </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
+      <c r="BF6">
+        <v>0</v>
+      </c>
+      <c r="BG6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B7" s="1">
         <v>35444</v>
@@ -1623,10 +1871,43 @@
       <c r="AV7">
         <v>0</v>
       </c>
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <v>0</v>
+      </c>
+      <c r="AY7">
+        <v>0</v>
+      </c>
+      <c r="AZ7">
+        <v>0</v>
+      </c>
+      <c r="BA7">
+        <v>0</v>
+      </c>
+      <c r="BB7">
+        <v>0</v>
+      </c>
+      <c r="BC7">
+        <v>3.31</v>
+      </c>
+      <c r="BD7">
+        <v>0</v>
+      </c>
+      <c r="BE7">
+        <v>0</v>
+      </c>
+      <c r="BF7">
+        <v>0</v>
+      </c>
+      <c r="BG7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B8" s="1">
         <v>35445</v>
@@ -1769,10 +2050,43 @@
       <c r="AV8">
         <v>1E-3</v>
       </c>
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <v>0</v>
+      </c>
+      <c r="AY8">
+        <v>0</v>
+      </c>
+      <c r="AZ8">
+        <v>0.02</v>
+      </c>
+      <c r="BA8">
+        <v>0</v>
+      </c>
+      <c r="BB8">
+        <v>0</v>
+      </c>
+      <c r="BC8">
+        <v>3.9</v>
+      </c>
+      <c r="BD8">
+        <v>0.02</v>
+      </c>
+      <c r="BE8">
+        <v>0</v>
+      </c>
+      <c r="BF8">
+        <v>0.02</v>
+      </c>
+      <c r="BG8">
+        <v>0.02</v>
+      </c>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B9" s="1">
         <v>35446</v>
@@ -1915,10 +2229,43 @@
       <c r="AV9">
         <v>1E-3</v>
       </c>
+      <c r="AW9">
+        <v>0.03</v>
+      </c>
+      <c r="AX9">
+        <v>0</v>
+      </c>
+      <c r="AY9">
+        <v>0</v>
+      </c>
+      <c r="AZ9">
+        <v>0.01</v>
+      </c>
+      <c r="BA9">
+        <v>0</v>
+      </c>
+      <c r="BB9">
+        <v>0</v>
+      </c>
+      <c r="BC9">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="BD9">
+        <v>0.01</v>
+      </c>
+      <c r="BE9">
+        <v>0</v>
+      </c>
+      <c r="BF9">
+        <v>0.01</v>
+      </c>
+      <c r="BG9">
+        <v>0.01</v>
+      </c>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B10" s="1">
         <v>35447</v>
@@ -2061,10 +2408,43 @@
       <c r="AV10">
         <v>1E-3</v>
       </c>
+      <c r="AW10">
+        <v>0.03</v>
+      </c>
+      <c r="AX10">
+        <v>0</v>
+      </c>
+      <c r="AY10">
+        <v>0</v>
+      </c>
+      <c r="AZ10">
+        <v>0</v>
+      </c>
+      <c r="BA10">
+        <v>0</v>
+      </c>
+      <c r="BB10">
+        <v>0</v>
+      </c>
+      <c r="BC10">
+        <v>8.7899999999999991</v>
+      </c>
+      <c r="BD10">
+        <v>0</v>
+      </c>
+      <c r="BE10">
+        <v>0</v>
+      </c>
+      <c r="BF10">
+        <v>0.01</v>
+      </c>
+      <c r="BG10">
+        <v>0.01</v>
+      </c>
     </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B11" s="1">
         <v>35448</v>
@@ -2207,10 +2587,43 @@
       <c r="AV11">
         <v>2E-3</v>
       </c>
+      <c r="AW11">
+        <v>0.05</v>
+      </c>
+      <c r="AX11">
+        <v>0</v>
+      </c>
+      <c r="AY11">
+        <v>0</v>
+      </c>
+      <c r="AZ11">
+        <v>0</v>
+      </c>
+      <c r="BA11">
+        <v>0</v>
+      </c>
+      <c r="BB11">
+        <v>0</v>
+      </c>
+      <c r="BC11">
+        <v>8.82</v>
+      </c>
+      <c r="BD11">
+        <v>0</v>
+      </c>
+      <c r="BE11">
+        <v>0</v>
+      </c>
+      <c r="BF11">
+        <v>0</v>
+      </c>
+      <c r="BG11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B12" s="1">
         <v>35449</v>
@@ -2353,10 +2766,43 @@
       <c r="AV12">
         <v>3.0000000000000001E-3</v>
       </c>
+      <c r="AW12">
+        <v>0.03</v>
+      </c>
+      <c r="AX12">
+        <v>0</v>
+      </c>
+      <c r="AY12">
+        <v>0</v>
+      </c>
+      <c r="AZ12">
+        <v>0</v>
+      </c>
+      <c r="BA12">
+        <v>0</v>
+      </c>
+      <c r="BB12">
+        <v>0</v>
+      </c>
+      <c r="BC12">
+        <v>9.1300000000000008</v>
+      </c>
+      <c r="BD12">
+        <v>0</v>
+      </c>
+      <c r="BE12">
+        <v>0</v>
+      </c>
+      <c r="BF12">
+        <v>0</v>
+      </c>
+      <c r="BG12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B13" s="1">
         <v>35450</v>
@@ -2499,10 +2945,43 @@
       <c r="AV13">
         <v>4.0000000000000001E-3</v>
       </c>
+      <c r="AW13">
+        <v>0.09</v>
+      </c>
+      <c r="AX13">
+        <v>0</v>
+      </c>
+      <c r="AY13">
+        <v>0</v>
+      </c>
+      <c r="AZ13">
+        <v>0</v>
+      </c>
+      <c r="BA13">
+        <v>0</v>
+      </c>
+      <c r="BB13">
+        <v>0</v>
+      </c>
+      <c r="BC13">
+        <v>9.07</v>
+      </c>
+      <c r="BD13">
+        <v>0</v>
+      </c>
+      <c r="BE13">
+        <v>0</v>
+      </c>
+      <c r="BF13">
+        <v>0</v>
+      </c>
+      <c r="BG13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B14" s="1">
         <v>35451</v>
@@ -2645,10 +3124,43 @@
       <c r="AV14">
         <v>4.0000000000000001E-3</v>
       </c>
+      <c r="AW14">
+        <v>0.11</v>
+      </c>
+      <c r="AX14">
+        <v>0</v>
+      </c>
+      <c r="AY14">
+        <v>0</v>
+      </c>
+      <c r="AZ14">
+        <v>0</v>
+      </c>
+      <c r="BA14">
+        <v>0</v>
+      </c>
+      <c r="BB14">
+        <v>0</v>
+      </c>
+      <c r="BC14">
+        <v>9.17</v>
+      </c>
+      <c r="BD14">
+        <v>0</v>
+      </c>
+      <c r="BE14">
+        <v>0</v>
+      </c>
+      <c r="BF14">
+        <v>0</v>
+      </c>
+      <c r="BG14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B15" s="1">
         <v>35452</v>
@@ -2791,10 +3303,43 @@
       <c r="AV15">
         <v>5.0000000000000001E-3</v>
       </c>
+      <c r="AW15">
+        <v>0.12</v>
+      </c>
+      <c r="AX15">
+        <v>0</v>
+      </c>
+      <c r="AY15">
+        <v>0</v>
+      </c>
+      <c r="AZ15">
+        <v>0</v>
+      </c>
+      <c r="BA15">
+        <v>0</v>
+      </c>
+      <c r="BB15">
+        <v>0</v>
+      </c>
+      <c r="BC15">
+        <v>12.78</v>
+      </c>
+      <c r="BD15">
+        <v>0</v>
+      </c>
+      <c r="BE15">
+        <v>0</v>
+      </c>
+      <c r="BF15">
+        <v>0</v>
+      </c>
+      <c r="BG15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B16" s="1">
         <v>35453</v>
@@ -2937,10 +3482,43 @@
       <c r="AV16">
         <v>6.0000000000000001E-3</v>
       </c>
+      <c r="AW16">
+        <v>0.18</v>
+      </c>
+      <c r="AX16">
+        <v>0</v>
+      </c>
+      <c r="AY16">
+        <v>0</v>
+      </c>
+      <c r="AZ16">
+        <v>0</v>
+      </c>
+      <c r="BA16">
+        <v>0</v>
+      </c>
+      <c r="BB16">
+        <v>0</v>
+      </c>
+      <c r="BC16">
+        <v>12.03</v>
+      </c>
+      <c r="BD16">
+        <v>0</v>
+      </c>
+      <c r="BE16">
+        <v>0</v>
+      </c>
+      <c r="BF16">
+        <v>0</v>
+      </c>
+      <c r="BG16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B17" s="1">
         <v>35454</v>
@@ -3083,10 +3661,43 @@
       <c r="AV17">
         <v>7.0000000000000001E-3</v>
       </c>
+      <c r="AW17">
+        <v>0.22</v>
+      </c>
+      <c r="AX17">
+        <v>0</v>
+      </c>
+      <c r="AY17">
+        <v>0.01</v>
+      </c>
+      <c r="AZ17">
+        <v>0</v>
+      </c>
+      <c r="BA17">
+        <v>0</v>
+      </c>
+      <c r="BB17">
+        <v>0</v>
+      </c>
+      <c r="BC17">
+        <v>11.93</v>
+      </c>
+      <c r="BD17">
+        <v>0</v>
+      </c>
+      <c r="BE17">
+        <v>0.01</v>
+      </c>
+      <c r="BF17">
+        <v>0.01</v>
+      </c>
+      <c r="BG17">
+        <v>0.01</v>
+      </c>
     </row>
-    <row r="18" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B18" s="1">
         <v>35455</v>
@@ -3229,10 +3840,43 @@
       <c r="AV18">
         <v>8.9999999999999993E-3</v>
       </c>
+      <c r="AW18">
+        <v>0.23</v>
+      </c>
+      <c r="AX18">
+        <v>0</v>
+      </c>
+      <c r="AY18">
+        <v>0.01</v>
+      </c>
+      <c r="AZ18">
+        <v>0</v>
+      </c>
+      <c r="BA18">
+        <v>0</v>
+      </c>
+      <c r="BB18">
+        <v>0</v>
+      </c>
+      <c r="BC18">
+        <v>11.92</v>
+      </c>
+      <c r="BD18">
+        <v>0</v>
+      </c>
+      <c r="BE18">
+        <v>0.01</v>
+      </c>
+      <c r="BF18">
+        <v>0.01</v>
+      </c>
+      <c r="BG18">
+        <v>0.01</v>
+      </c>
     </row>
-    <row r="19" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B19" s="1">
         <v>35456</v>
@@ -3375,10 +4019,43 @@
       <c r="AV19">
         <v>1.0999999999999999E-2</v>
       </c>
+      <c r="AW19">
+        <v>0.23</v>
+      </c>
+      <c r="AX19">
+        <v>0</v>
+      </c>
+      <c r="AY19">
+        <v>0.01</v>
+      </c>
+      <c r="AZ19">
+        <v>0</v>
+      </c>
+      <c r="BA19">
+        <v>0</v>
+      </c>
+      <c r="BB19">
+        <v>0</v>
+      </c>
+      <c r="BC19">
+        <v>11.98</v>
+      </c>
+      <c r="BD19">
+        <v>0</v>
+      </c>
+      <c r="BE19">
+        <v>0</v>
+      </c>
+      <c r="BF19">
+        <v>0</v>
+      </c>
+      <c r="BG19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B20" s="1">
         <v>35457</v>
@@ -3521,10 +4198,43 @@
       <c r="AV20">
         <v>1.2999999999999999E-2</v>
       </c>
+      <c r="AW20">
+        <v>0.15</v>
+      </c>
+      <c r="AX20">
+        <v>0</v>
+      </c>
+      <c r="AY20">
+        <v>0.01</v>
+      </c>
+      <c r="AZ20">
+        <v>0</v>
+      </c>
+      <c r="BA20">
+        <v>0</v>
+      </c>
+      <c r="BB20">
+        <v>0</v>
+      </c>
+      <c r="BC20">
+        <v>11.8</v>
+      </c>
+      <c r="BD20">
+        <v>0</v>
+      </c>
+      <c r="BE20">
+        <v>0</v>
+      </c>
+      <c r="BF20">
+        <v>0.01</v>
+      </c>
+      <c r="BG20">
+        <v>0.01</v>
+      </c>
     </row>
-    <row r="21" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B21" s="1">
         <v>35458</v>
@@ -3667,10 +4377,43 @@
       <c r="AV21">
         <v>1.6E-2</v>
       </c>
+      <c r="AW21">
+        <v>0.31</v>
+      </c>
+      <c r="AX21">
+        <v>0</v>
+      </c>
+      <c r="AY21">
+        <v>0.01</v>
+      </c>
+      <c r="AZ21">
+        <v>0</v>
+      </c>
+      <c r="BA21">
+        <v>0</v>
+      </c>
+      <c r="BB21">
+        <v>0</v>
+      </c>
+      <c r="BC21">
+        <v>11.63</v>
+      </c>
+      <c r="BD21">
+        <v>0.01</v>
+      </c>
+      <c r="BE21">
+        <v>0</v>
+      </c>
+      <c r="BF21">
+        <v>0.01</v>
+      </c>
+      <c r="BG21">
+        <v>0.01</v>
+      </c>
     </row>
-    <row r="22" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B22" s="1">
         <v>35459</v>
@@ -3813,10 +4556,43 @@
       <c r="AV22">
         <v>0.02</v>
       </c>
+      <c r="AW22">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AX22">
+        <v>0</v>
+      </c>
+      <c r="AY22">
+        <v>0.01</v>
+      </c>
+      <c r="AZ22">
+        <v>0</v>
+      </c>
+      <c r="BA22">
+        <v>0</v>
+      </c>
+      <c r="BB22">
+        <v>0</v>
+      </c>
+      <c r="BC22">
+        <v>11.48</v>
+      </c>
+      <c r="BD22">
+        <v>0.01</v>
+      </c>
+      <c r="BE22">
+        <v>0</v>
+      </c>
+      <c r="BF22">
+        <v>0.01</v>
+      </c>
+      <c r="BG22">
+        <v>0.01</v>
+      </c>
     </row>
-    <row r="23" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B23" s="1">
         <v>35460</v>
@@ -3959,10 +4735,43 @@
       <c r="AV23">
         <v>2.4E-2</v>
       </c>
+      <c r="AW23">
+        <v>0.27</v>
+      </c>
+      <c r="AX23">
+        <v>0</v>
+      </c>
+      <c r="AY23">
+        <v>0.01</v>
+      </c>
+      <c r="AZ23">
+        <v>0</v>
+      </c>
+      <c r="BA23">
+        <v>0</v>
+      </c>
+      <c r="BB23">
+        <v>0</v>
+      </c>
+      <c r="BC23">
+        <v>16.37</v>
+      </c>
+      <c r="BD23">
+        <v>0.01</v>
+      </c>
+      <c r="BE23">
+        <v>0</v>
+      </c>
+      <c r="BF23">
+        <v>0.01</v>
+      </c>
+      <c r="BG23">
+        <v>0.01</v>
+      </c>
     </row>
-    <row r="24" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B24" s="1">
         <v>35461</v>
@@ -4105,10 +4914,43 @@
       <c r="AV24">
         <v>0.03</v>
       </c>
+      <c r="AW24">
+        <v>0.36</v>
+      </c>
+      <c r="AX24">
+        <v>0</v>
+      </c>
+      <c r="AY24">
+        <v>0.02</v>
+      </c>
+      <c r="AZ24">
+        <v>0</v>
+      </c>
+      <c r="BA24">
+        <v>0</v>
+      </c>
+      <c r="BB24">
+        <v>0</v>
+      </c>
+      <c r="BC24">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="BD24">
+        <v>0.01</v>
+      </c>
+      <c r="BE24">
+        <v>0</v>
+      </c>
+      <c r="BF24">
+        <v>0.02</v>
+      </c>
+      <c r="BG24">
+        <v>0.02</v>
+      </c>
     </row>
-    <row r="25" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B25" s="1">
         <v>35462</v>
@@ -4251,10 +5093,43 @@
       <c r="AV25">
         <v>3.9E-2</v>
       </c>
+      <c r="AW25">
+        <v>0.77</v>
+      </c>
+      <c r="AX25">
+        <v>0</v>
+      </c>
+      <c r="AY25">
+        <v>0.03</v>
+      </c>
+      <c r="AZ25">
+        <v>0</v>
+      </c>
+      <c r="BA25">
+        <v>0</v>
+      </c>
+      <c r="BB25">
+        <v>0</v>
+      </c>
+      <c r="BC25">
+        <v>15.03</v>
+      </c>
+      <c r="BD25">
+        <v>0.02</v>
+      </c>
+      <c r="BE25">
+        <v>0.01</v>
+      </c>
+      <c r="BF25">
+        <v>0.03</v>
+      </c>
+      <c r="BG25">
+        <v>0.03</v>
+      </c>
     </row>
-    <row r="26" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B26" s="1">
         <v>35463</v>
@@ -4397,10 +5272,43 @@
       <c r="AV26">
         <v>4.9000000000000002E-2</v>
       </c>
+      <c r="AW26">
+        <v>0.91</v>
+      </c>
+      <c r="AX26">
+        <v>0</v>
+      </c>
+      <c r="AY26">
+        <v>0.04</v>
+      </c>
+      <c r="AZ26">
+        <v>0</v>
+      </c>
+      <c r="BA26">
+        <v>0</v>
+      </c>
+      <c r="BB26">
+        <v>0</v>
+      </c>
+      <c r="BC26">
+        <v>14.55</v>
+      </c>
+      <c r="BD26">
+        <v>0.02</v>
+      </c>
+      <c r="BE26">
+        <v>0.01</v>
+      </c>
+      <c r="BF26">
+        <v>0.04</v>
+      </c>
+      <c r="BG26">
+        <v>0.04</v>
+      </c>
     </row>
-    <row r="27" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B27" s="1">
         <v>35464</v>
@@ -4543,10 +5451,43 @@
       <c r="AV27">
         <v>5.8999999999999997E-2</v>
       </c>
+      <c r="AW27">
+        <v>0.67</v>
+      </c>
+      <c r="AX27">
+        <v>0</v>
+      </c>
+      <c r="AY27">
+        <v>0.03</v>
+      </c>
+      <c r="AZ27">
+        <v>0</v>
+      </c>
+      <c r="BA27">
+        <v>0</v>
+      </c>
+      <c r="BB27">
+        <v>0</v>
+      </c>
+      <c r="BC27">
+        <v>14.12</v>
+      </c>
+      <c r="BD27">
+        <v>0.03</v>
+      </c>
+      <c r="BE27">
+        <v>0</v>
+      </c>
+      <c r="BF27">
+        <v>0.03</v>
+      </c>
+      <c r="BG27">
+        <v>0.03</v>
+      </c>
     </row>
-    <row r="28" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B28" s="1">
         <v>35465</v>
@@ -4689,10 +5630,43 @@
       <c r="AV28">
         <v>7.0999999999999994E-2</v>
       </c>
+      <c r="AW28">
+        <v>1.6</v>
+      </c>
+      <c r="AX28">
+        <v>0</v>
+      </c>
+      <c r="AY28">
+        <v>0.05</v>
+      </c>
+      <c r="AZ28">
+        <v>0</v>
+      </c>
+      <c r="BA28">
+        <v>0</v>
+      </c>
+      <c r="BB28">
+        <v>0</v>
+      </c>
+      <c r="BC28">
+        <v>13.75</v>
+      </c>
+      <c r="BD28">
+        <v>0.03</v>
+      </c>
+      <c r="BE28">
+        <v>0.01</v>
+      </c>
+      <c r="BF28">
+        <v>0.05</v>
+      </c>
+      <c r="BG28">
+        <v>0.05</v>
+      </c>
     </row>
-    <row r="29" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B29" s="1">
         <v>35466</v>
@@ -4835,10 +5809,43 @@
       <c r="AV29">
         <v>8.4000000000000005E-2</v>
       </c>
+      <c r="AW29">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AX29">
+        <v>0</v>
+      </c>
+      <c r="AY29">
+        <v>0.06</v>
+      </c>
+      <c r="AZ29">
+        <v>0</v>
+      </c>
+      <c r="BA29">
+        <v>0</v>
+      </c>
+      <c r="BB29">
+        <v>0</v>
+      </c>
+      <c r="BC29">
+        <v>13.38</v>
+      </c>
+      <c r="BD29">
+        <v>0.03</v>
+      </c>
+      <c r="BE29">
+        <v>0.03</v>
+      </c>
+      <c r="BF29">
+        <v>0.06</v>
+      </c>
+      <c r="BG29">
+        <v>0.06</v>
+      </c>
     </row>
-    <row r="30" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B30" s="1">
         <v>35467</v>
@@ -4981,10 +5988,43 @@
       <c r="AV30">
         <v>0.1</v>
       </c>
+      <c r="AW30">
+        <v>2.81</v>
+      </c>
+      <c r="AX30">
+        <v>0</v>
+      </c>
+      <c r="AY30">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AZ30">
+        <v>0</v>
+      </c>
+      <c r="BA30">
+        <v>0</v>
+      </c>
+      <c r="BB30">
+        <v>0</v>
+      </c>
+      <c r="BC30">
+        <v>12.99</v>
+      </c>
+      <c r="BD30">
+        <v>0.04</v>
+      </c>
+      <c r="BE30">
+        <v>0.03</v>
+      </c>
+      <c r="BF30">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="BG30">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
-    <row r="31" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B31" s="1">
         <v>35468</v>
@@ -5127,10 +6167,43 @@
       <c r="AV31">
         <v>0.11899999999999999</v>
       </c>
+      <c r="AW31">
+        <v>3.12</v>
+      </c>
+      <c r="AX31">
+        <v>0.01</v>
+      </c>
+      <c r="AY31">
+        <v>0.08</v>
+      </c>
+      <c r="AZ31">
+        <v>0.01</v>
+      </c>
+      <c r="BA31">
+        <v>0</v>
+      </c>
+      <c r="BB31">
+        <v>0</v>
+      </c>
+      <c r="BC31">
+        <v>12.61</v>
+      </c>
+      <c r="BD31">
+        <v>0.04</v>
+      </c>
+      <c r="BE31">
+        <v>0.05</v>
+      </c>
+      <c r="BF31">
+        <v>0.09</v>
+      </c>
+      <c r="BG31">
+        <v>0.09</v>
+      </c>
     </row>
-    <row r="32" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B32" s="1">
         <v>35469</v>
@@ -5273,10 +6346,43 @@
       <c r="AV32">
         <v>0.14000000000000001</v>
       </c>
+      <c r="AW32">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="AX32">
+        <v>0</v>
+      </c>
+      <c r="AY32">
+        <v>0.08</v>
+      </c>
+      <c r="AZ32">
+        <v>0</v>
+      </c>
+      <c r="BA32">
+        <v>0</v>
+      </c>
+      <c r="BB32">
+        <v>0</v>
+      </c>
+      <c r="BC32">
+        <v>15.95</v>
+      </c>
+      <c r="BD32">
+        <v>0.06</v>
+      </c>
+      <c r="BE32">
+        <v>0.03</v>
+      </c>
+      <c r="BF32">
+        <v>0.09</v>
+      </c>
+      <c r="BG32">
+        <v>0.09</v>
+      </c>
     </row>
-    <row r="33" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B33" s="1">
         <v>35470</v>
@@ -5419,10 +6525,43 @@
       <c r="AV33">
         <v>0.16700000000000001</v>
       </c>
+      <c r="AW33">
+        <v>4.7</v>
+      </c>
+      <c r="AX33">
+        <v>0.01</v>
+      </c>
+      <c r="AY33">
+        <v>0.11</v>
+      </c>
+      <c r="AZ33">
+        <v>0.01</v>
+      </c>
+      <c r="BA33">
+        <v>0</v>
+      </c>
+      <c r="BB33">
+        <v>0</v>
+      </c>
+      <c r="BC33">
+        <v>15.14</v>
+      </c>
+      <c r="BD33">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="BE33">
+        <v>0.06</v>
+      </c>
+      <c r="BF33">
+        <v>0.13</v>
+      </c>
+      <c r="BG33">
+        <v>0.13</v>
+      </c>
     </row>
-    <row r="34" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B34" s="1">
         <v>35471</v>
@@ -5565,10 +6704,43 @@
       <c r="AV34">
         <v>0.19600000000000001</v>
       </c>
+      <c r="AW34">
+        <v>5.6</v>
+      </c>
+      <c r="AX34">
+        <v>0.01</v>
+      </c>
+      <c r="AY34">
+        <v>0.13</v>
+      </c>
+      <c r="AZ34">
+        <v>0.02</v>
+      </c>
+      <c r="BA34">
+        <v>0</v>
+      </c>
+      <c r="BB34">
+        <v>0</v>
+      </c>
+      <c r="BC34">
+        <v>14.38</v>
+      </c>
+      <c r="BD34">
+        <v>0.08</v>
+      </c>
+      <c r="BE34">
+        <v>0.08</v>
+      </c>
+      <c r="BF34">
+        <v>0.16</v>
+      </c>
+      <c r="BG34">
+        <v>0.16</v>
+      </c>
     </row>
-    <row r="35" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B35" s="1">
         <v>35472</v>
@@ -5711,10 +6883,43 @@
       <c r="AV35">
         <v>0.23</v>
       </c>
+      <c r="AW35">
+        <v>6.59</v>
+      </c>
+      <c r="AX35">
+        <v>0.01</v>
+      </c>
+      <c r="AY35">
+        <v>0.16</v>
+      </c>
+      <c r="AZ35">
+        <v>0.02</v>
+      </c>
+      <c r="BA35">
+        <v>0</v>
+      </c>
+      <c r="BB35">
+        <v>0</v>
+      </c>
+      <c r="BC35">
+        <v>13.59</v>
+      </c>
+      <c r="BD35">
+        <v>0.08</v>
+      </c>
+      <c r="BE35">
+        <v>0.11</v>
+      </c>
+      <c r="BF35">
+        <v>0.19</v>
+      </c>
+      <c r="BG35">
+        <v>0.19</v>
+      </c>
     </row>
-    <row r="36" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B36" s="1">
         <v>35473</v>
@@ -5857,10 +7062,43 @@
       <c r="AV36">
         <v>0.26900000000000002</v>
       </c>
+      <c r="AW36">
+        <v>7.72</v>
+      </c>
+      <c r="AX36">
+        <v>0.01</v>
+      </c>
+      <c r="AY36">
+        <v>0.19</v>
+      </c>
+      <c r="AZ36">
+        <v>0.02</v>
+      </c>
+      <c r="BA36">
+        <v>0</v>
+      </c>
+      <c r="BB36">
+        <v>0</v>
+      </c>
+      <c r="BC36">
+        <v>12.79</v>
+      </c>
+      <c r="BD36">
+        <v>0.09</v>
+      </c>
+      <c r="BE36">
+        <v>0.13</v>
+      </c>
+      <c r="BF36">
+        <v>0.22</v>
+      </c>
+      <c r="BG36">
+        <v>0.22</v>
+      </c>
     </row>
-    <row r="37" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B37" s="1">
         <v>35474</v>
@@ -6003,10 +7241,43 @@
       <c r="AV37">
         <v>0.317</v>
       </c>
+      <c r="AW37">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="AX37">
+        <v>0.01</v>
+      </c>
+      <c r="AY37">
+        <v>0.24</v>
+      </c>
+      <c r="AZ37">
+        <v>0.02</v>
+      </c>
+      <c r="BA37">
+        <v>0</v>
+      </c>
+      <c r="BB37">
+        <v>0</v>
+      </c>
+      <c r="BC37">
+        <v>20.54</v>
+      </c>
+      <c r="BD37">
+        <v>0.12</v>
+      </c>
+      <c r="BE37">
+        <v>0.15</v>
+      </c>
+      <c r="BF37">
+        <v>0.27</v>
+      </c>
+      <c r="BG37">
+        <v>0.27</v>
+      </c>
     </row>
-    <row r="38" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B38" s="1">
         <v>35475</v>
@@ -6149,10 +7420,43 @@
       <c r="AV38">
         <v>0.36699999999999999</v>
       </c>
+      <c r="AW38">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="AX38">
+        <v>0.01</v>
+      </c>
+      <c r="AY38">
+        <v>0.26</v>
+      </c>
+      <c r="AZ38">
+        <v>0.02</v>
+      </c>
+      <c r="BA38">
+        <v>0</v>
+      </c>
+      <c r="BB38">
+        <v>0</v>
+      </c>
+      <c r="BC38">
+        <v>18.29</v>
+      </c>
+      <c r="BD38">
+        <v>0.15</v>
+      </c>
+      <c r="BE38">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="BF38">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="BG38">
+        <v>0.28999999999999998</v>
+      </c>
     </row>
-    <row r="39" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B39" s="1">
         <v>35476</v>
@@ -6295,10 +7599,43 @@
       <c r="AV39">
         <v>0.40699999999999997</v>
       </c>
+      <c r="AW39">
+        <v>5.48</v>
+      </c>
+      <c r="AX39">
+        <v>0</v>
+      </c>
+      <c r="AY39">
+        <v>0.22</v>
+      </c>
+      <c r="AZ39">
+        <v>0.01</v>
+      </c>
+      <c r="BA39">
+        <v>0</v>
+      </c>
+      <c r="BB39">
+        <v>0</v>
+      </c>
+      <c r="BC39">
+        <v>22.28</v>
+      </c>
+      <c r="BD39">
+        <v>0.19</v>
+      </c>
+      <c r="BE39">
+        <v>0.04</v>
+      </c>
+      <c r="BF39">
+        <v>0.23</v>
+      </c>
+      <c r="BG39">
+        <v>0.23</v>
+      </c>
     </row>
-    <row r="40" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B40" s="1">
         <v>35477</v>
@@ -6441,10 +7778,43 @@
       <c r="AV40">
         <v>0.44500000000000001</v>
       </c>
+      <c r="AW40">
+        <v>5.58</v>
+      </c>
+      <c r="AX40">
+        <v>0</v>
+      </c>
+      <c r="AY40">
+        <v>0.22</v>
+      </c>
+      <c r="AZ40">
+        <v>0.01</v>
+      </c>
+      <c r="BA40">
+        <v>0</v>
+      </c>
+      <c r="BB40">
+        <v>0</v>
+      </c>
+      <c r="BC40">
+        <v>21.93</v>
+      </c>
+      <c r="BD40">
+        <v>0.22</v>
+      </c>
+      <c r="BE40">
+        <v>0.02</v>
+      </c>
+      <c r="BF40">
+        <v>0.25</v>
+      </c>
+      <c r="BG40">
+        <v>0.25</v>
+      </c>
     </row>
-    <row r="41" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B41" s="1">
         <v>35478</v>
@@ -6587,10 +7957,43 @@
       <c r="AV41">
         <v>0.49299999999999999</v>
       </c>
+      <c r="AW41">
+        <v>8.85</v>
+      </c>
+      <c r="AX41">
+        <v>0</v>
+      </c>
+      <c r="AY41">
+        <v>0.3</v>
+      </c>
+      <c r="AZ41">
+        <v>0.02</v>
+      </c>
+      <c r="BA41">
+        <v>0</v>
+      </c>
+      <c r="BB41">
+        <v>0</v>
+      </c>
+      <c r="BC41">
+        <v>21.66</v>
+      </c>
+      <c r="BD41">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="BE41">
+        <v>0.06</v>
+      </c>
+      <c r="BF41">
+        <v>0.33</v>
+      </c>
+      <c r="BG41">
+        <v>0.33</v>
+      </c>
     </row>
-    <row r="42" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B42" s="1">
         <v>35479</v>
@@ -6733,10 +8136,43 @@
       <c r="AV42">
         <v>0.54</v>
       </c>
+      <c r="AW42">
+        <v>10.42</v>
+      </c>
+      <c r="AX42">
+        <v>0.01</v>
+      </c>
+      <c r="AY42">
+        <v>0.35</v>
+      </c>
+      <c r="AZ42">
+        <v>0.03</v>
+      </c>
+      <c r="BA42">
+        <v>0.01</v>
+      </c>
+      <c r="BB42">
+        <v>0</v>
+      </c>
+      <c r="BC42">
+        <v>21.32</v>
+      </c>
+      <c r="BD42">
+        <v>0.3</v>
+      </c>
+      <c r="BE42">
+        <v>0.09</v>
+      </c>
+      <c r="BF42">
+        <v>0.39</v>
+      </c>
+      <c r="BG42">
+        <v>0.39</v>
+      </c>
     </row>
-    <row r="43" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B43" s="1">
         <v>35480</v>
@@ -6879,10 +8315,43 @@
       <c r="AV43">
         <v>0.57499999999999996</v>
       </c>
+      <c r="AW43">
+        <v>14.09</v>
+      </c>
+      <c r="AX43">
+        <v>0.01</v>
+      </c>
+      <c r="AY43">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AZ43">
+        <v>0.04</v>
+      </c>
+      <c r="BA43">
+        <v>0.01</v>
+      </c>
+      <c r="BB43">
+        <v>0</v>
+      </c>
+      <c r="BC43">
+        <v>20.75</v>
+      </c>
+      <c r="BD43">
+        <v>0.26</v>
+      </c>
+      <c r="BE43">
+        <v>0.09</v>
+      </c>
+      <c r="BF43">
+        <v>0.35</v>
+      </c>
+      <c r="BG43">
+        <v>0.35</v>
+      </c>
     </row>
-    <row r="44" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B44" s="1">
         <v>35481</v>
@@ -7025,10 +8494,43 @@
       <c r="AV44">
         <v>0.60499999999999998</v>
       </c>
+      <c r="AW44">
+        <v>16.45</v>
+      </c>
+      <c r="AX44">
+        <v>0.01</v>
+      </c>
+      <c r="AY44">
+        <v>0.26</v>
+      </c>
+      <c r="AZ44">
+        <v>0.05</v>
+      </c>
+      <c r="BA44">
+        <v>0.01</v>
+      </c>
+      <c r="BB44">
+        <v>0</v>
+      </c>
+      <c r="BC44">
+        <v>20.13</v>
+      </c>
+      <c r="BD44">
+        <v>0.21</v>
+      </c>
+      <c r="BE44">
+        <v>0.12</v>
+      </c>
+      <c r="BF44">
+        <v>0.33</v>
+      </c>
+      <c r="BG44">
+        <v>0.33</v>
+      </c>
     </row>
-    <row r="45" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B45" s="1">
         <v>35482</v>
@@ -7171,10 +8673,43 @@
       <c r="AV45">
         <v>0.63</v>
       </c>
+      <c r="AW45">
+        <v>18.8</v>
+      </c>
+      <c r="AX45">
+        <v>0.01</v>
+      </c>
+      <c r="AY45">
+        <v>0.24</v>
+      </c>
+      <c r="AZ45">
+        <v>0.06</v>
+      </c>
+      <c r="BA45">
+        <v>0.01</v>
+      </c>
+      <c r="BB45">
+        <v>0</v>
+      </c>
+      <c r="BC45">
+        <v>19.55</v>
+      </c>
+      <c r="BD45">
+        <v>0.17</v>
+      </c>
+      <c r="BE45">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="BF45">
+        <v>0.31</v>
+      </c>
+      <c r="BG45">
+        <v>0.31</v>
+      </c>
     </row>
-    <row r="46" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B46" s="1">
         <v>35483</v>
@@ -7317,10 +8852,43 @@
       <c r="AV46">
         <v>0.65100000000000002</v>
       </c>
+      <c r="AW46">
+        <v>17.239999999999998</v>
+      </c>
+      <c r="AX46">
+        <v>0.01</v>
+      </c>
+      <c r="AY46">
+        <v>0.22</v>
+      </c>
+      <c r="AZ46">
+        <v>0.05</v>
+      </c>
+      <c r="BA46">
+        <v>0.01</v>
+      </c>
+      <c r="BB46">
+        <v>0</v>
+      </c>
+      <c r="BC46">
+        <v>18.96</v>
+      </c>
+      <c r="BD46">
+        <v>0.09</v>
+      </c>
+      <c r="BE46">
+        <v>0.21</v>
+      </c>
+      <c r="BF46">
+        <v>0.3</v>
+      </c>
+      <c r="BG46">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="47" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B47" s="1">
         <v>35484</v>
@@ -7463,10 +9031,43 @@
       <c r="AV47">
         <v>0.67200000000000004</v>
       </c>
+      <c r="AW47">
+        <v>21.05</v>
+      </c>
+      <c r="AX47">
+        <v>0.01</v>
+      </c>
+      <c r="AY47">
+        <v>0.25</v>
+      </c>
+      <c r="AZ47">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="BA47">
+        <v>0.02</v>
+      </c>
+      <c r="BB47">
+        <v>0</v>
+      </c>
+      <c r="BC47">
+        <v>18.02</v>
+      </c>
+      <c r="BD47">
+        <v>0.08</v>
+      </c>
+      <c r="BE47">
+        <v>0.27</v>
+      </c>
+      <c r="BF47">
+        <v>0.35</v>
+      </c>
+      <c r="BG47">
+        <v>0.35</v>
+      </c>
     </row>
-    <row r="48" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B48" s="1">
         <v>35485</v>
@@ -7609,10 +9210,43 @@
       <c r="AV48">
         <v>0.69099999999999995</v>
       </c>
+      <c r="AW48">
+        <v>20.9</v>
+      </c>
+      <c r="AX48">
+        <v>0.01</v>
+      </c>
+      <c r="AY48">
+        <v>0.25</v>
+      </c>
+      <c r="AZ48">
+        <v>0.08</v>
+      </c>
+      <c r="BA48">
+        <v>0.03</v>
+      </c>
+      <c r="BB48">
+        <v>0</v>
+      </c>
+      <c r="BC48">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="BD48">
+        <v>0.06</v>
+      </c>
+      <c r="BE48">
+        <v>0.31</v>
+      </c>
+      <c r="BF48">
+        <v>0.37</v>
+      </c>
+      <c r="BG48">
+        <v>0.37</v>
+      </c>
     </row>
-    <row r="49" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B49" s="1">
         <v>35486</v>
@@ -7755,10 +9389,43 @@
       <c r="AV49">
         <v>0.70699999999999996</v>
       </c>
+      <c r="AW49">
+        <v>18.05</v>
+      </c>
+      <c r="AX49">
+        <v>0.01</v>
+      </c>
+      <c r="AY49">
+        <v>0.26</v>
+      </c>
+      <c r="AZ49">
+        <v>0.08</v>
+      </c>
+      <c r="BA49">
+        <v>0.04</v>
+      </c>
+      <c r="BB49">
+        <v>0</v>
+      </c>
+      <c r="BC49">
+        <v>15.78</v>
+      </c>
+      <c r="BD49">
+        <v>0.16</v>
+      </c>
+      <c r="BE49">
+        <v>0.24</v>
+      </c>
+      <c r="BF49">
+        <v>0.39</v>
+      </c>
+      <c r="BG49">
+        <v>0.39</v>
+      </c>
     </row>
-    <row r="50" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B50" s="1">
         <v>35487</v>
@@ -7901,10 +9568,43 @@
       <c r="AV50">
         <v>0.72099999999999997</v>
       </c>
+      <c r="AW50">
+        <v>14.08</v>
+      </c>
+      <c r="AX50">
+        <v>0.01</v>
+      </c>
+      <c r="AY50">
+        <v>0.24</v>
+      </c>
+      <c r="AZ50">
+        <v>0.08</v>
+      </c>
+      <c r="BA50">
+        <v>0.03</v>
+      </c>
+      <c r="BB50">
+        <v>0</v>
+      </c>
+      <c r="BC50">
+        <v>14.9</v>
+      </c>
+      <c r="BD50">
+        <v>0.27</v>
+      </c>
+      <c r="BE50">
+        <v>0.1</v>
+      </c>
+      <c r="BF50">
+        <v>0.37</v>
+      </c>
+      <c r="BG50">
+        <v>0.37</v>
+      </c>
     </row>
-    <row r="51" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B51" s="1">
         <v>35488</v>
@@ -8047,10 +9747,43 @@
       <c r="AV51">
         <v>0.73099999999999998</v>
       </c>
+      <c r="AW51">
+        <v>15.27</v>
+      </c>
+      <c r="AX51">
+        <v>0.01</v>
+      </c>
+      <c r="AY51">
+        <v>0.19</v>
+      </c>
+      <c r="AZ51">
+        <v>0.09</v>
+      </c>
+      <c r="BA51">
+        <v>0.04</v>
+      </c>
+      <c r="BB51">
+        <v>0</v>
+      </c>
+      <c r="BC51">
+        <v>14.44</v>
+      </c>
+      <c r="BD51">
+        <v>0.19</v>
+      </c>
+      <c r="BE51">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="BF51">
+        <v>0.33</v>
+      </c>
+      <c r="BG51">
+        <v>0.33</v>
+      </c>
     </row>
-    <row r="52" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B52" s="1">
         <v>35489</v>
@@ -8193,10 +9926,43 @@
       <c r="AV52">
         <v>0.73799999999999999</v>
       </c>
+      <c r="AW52">
+        <v>10.94</v>
+      </c>
+      <c r="AX52">
+        <v>0.01</v>
+      </c>
+      <c r="AY52">
+        <v>0.11</v>
+      </c>
+      <c r="AZ52">
+        <v>0.05</v>
+      </c>
+      <c r="BA52">
+        <v>0.02</v>
+      </c>
+      <c r="BB52">
+        <v>0</v>
+      </c>
+      <c r="BC52">
+        <v>15.11</v>
+      </c>
+      <c r="BD52">
+        <v>0.16</v>
+      </c>
+      <c r="BE52">
+        <v>0.02</v>
+      </c>
+      <c r="BF52">
+        <v>0.19</v>
+      </c>
+      <c r="BG52">
+        <v>0.19</v>
+      </c>
     </row>
-    <row r="53" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B53" s="1">
         <v>35490</v>
@@ -8339,10 +10105,43 @@
       <c r="AV53">
         <v>0.74399999999999999</v>
       </c>
+      <c r="AW53">
+        <v>22.09</v>
+      </c>
+      <c r="AX53">
+        <v>0.01</v>
+      </c>
+      <c r="AY53">
+        <v>0.1</v>
+      </c>
+      <c r="AZ53">
+        <v>0.13</v>
+      </c>
+      <c r="BA53">
+        <v>0.05</v>
+      </c>
+      <c r="BB53">
+        <v>0</v>
+      </c>
+      <c r="BC53">
+        <v>17.3</v>
+      </c>
+      <c r="BD53">
+        <v>0.15</v>
+      </c>
+      <c r="BE53">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="BF53">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="BG53">
+        <v>0.28999999999999998</v>
+      </c>
     </row>
-    <row r="54" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B54" s="1">
         <v>35491</v>
@@ -8485,10 +10284,43 @@
       <c r="AV54">
         <v>0.748</v>
       </c>
+      <c r="AW54">
+        <v>23.18</v>
+      </c>
+      <c r="AX54">
+        <v>0.02</v>
+      </c>
+      <c r="AY54">
+        <v>0.08</v>
+      </c>
+      <c r="AZ54">
+        <v>0.16</v>
+      </c>
+      <c r="BA54">
+        <v>0.06</v>
+      </c>
+      <c r="BB54">
+        <v>0</v>
+      </c>
+      <c r="BC54">
+        <v>16.68</v>
+      </c>
+      <c r="BD54">
+        <v>0.06</v>
+      </c>
+      <c r="BE54">
+        <v>0.25</v>
+      </c>
+      <c r="BF54">
+        <v>0.31</v>
+      </c>
+      <c r="BG54">
+        <v>0.31</v>
+      </c>
     </row>
-    <row r="55" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B55" s="1">
         <v>35492</v>
@@ -8631,10 +10463,43 @@
       <c r="AV55">
         <v>0.753</v>
       </c>
+      <c r="AW55">
+        <v>19.59</v>
+      </c>
+      <c r="AX55">
+        <v>0.01</v>
+      </c>
+      <c r="AY55">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AZ55">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="BA55">
+        <v>0.05</v>
+      </c>
+      <c r="BB55">
+        <v>0</v>
+      </c>
+      <c r="BC55">
+        <v>15.63</v>
+      </c>
+      <c r="BD55">
+        <v>0.1</v>
+      </c>
+      <c r="BE55">
+        <v>0.19</v>
+      </c>
+      <c r="BF55">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="BG55">
+        <v>0.28000000000000003</v>
+      </c>
     </row>
-    <row r="56" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B56" s="1">
         <v>35493</v>
@@ -8777,10 +10642,43 @@
       <c r="AV56">
         <v>0.75600000000000001</v>
       </c>
+      <c r="AW56">
+        <v>23.46</v>
+      </c>
+      <c r="AX56">
+        <v>0.02</v>
+      </c>
+      <c r="AY56">
+        <v>0.05</v>
+      </c>
+      <c r="AZ56">
+        <v>0.19</v>
+      </c>
+      <c r="BA56">
+        <v>0.06</v>
+      </c>
+      <c r="BB56">
+        <v>0</v>
+      </c>
+      <c r="BC56">
+        <v>14.72</v>
+      </c>
+      <c r="BD56">
+        <v>0.06</v>
+      </c>
+      <c r="BE56">
+        <v>0.26</v>
+      </c>
+      <c r="BF56">
+        <v>0.32</v>
+      </c>
+      <c r="BG56">
+        <v>0.32</v>
+      </c>
     </row>
-    <row r="57" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B57" s="1">
         <v>35494</v>
@@ -8923,10 +10821,43 @@
       <c r="AV57">
         <v>0.75900000000000001</v>
       </c>
+      <c r="AW57">
+        <v>22.63</v>
+      </c>
+      <c r="AX57">
+        <v>0.02</v>
+      </c>
+      <c r="AY57">
+        <v>0.04</v>
+      </c>
+      <c r="AZ57">
+        <v>0.17</v>
+      </c>
+      <c r="BA57">
+        <v>0.06</v>
+      </c>
+      <c r="BB57">
+        <v>0</v>
+      </c>
+      <c r="BC57">
+        <v>13.64</v>
+      </c>
+      <c r="BD57">
+        <v>0.05</v>
+      </c>
+      <c r="BE57">
+        <v>0.24</v>
+      </c>
+      <c r="BF57">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="BG57">
+        <v>0.28999999999999998</v>
+      </c>
     </row>
-    <row r="58" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B58" s="1">
         <v>35495</v>
@@ -9069,10 +11000,43 @@
       <c r="AV58">
         <v>0.76</v>
       </c>
+      <c r="AW58">
+        <v>10.41</v>
+      </c>
+      <c r="AX58">
+        <v>0.01</v>
+      </c>
+      <c r="AY58">
+        <v>0.02</v>
+      </c>
+      <c r="AZ58">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="BA58">
+        <v>0.03</v>
+      </c>
+      <c r="BB58">
+        <v>0</v>
+      </c>
+      <c r="BC58">
+        <v>12.82</v>
+      </c>
+      <c r="BD58">
+        <v>0.06</v>
+      </c>
+      <c r="BE58">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="BF58">
+        <v>0.13</v>
+      </c>
+      <c r="BG58">
+        <v>0.13</v>
+      </c>
     </row>
-    <row r="59" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B59" s="1">
         <v>35496</v>
@@ -9215,10 +11179,43 @@
       <c r="AV59">
         <v>0.76</v>
       </c>
+      <c r="AW59">
+        <v>11.37</v>
+      </c>
+      <c r="AX59">
+        <v>0.01</v>
+      </c>
+      <c r="AY59">
+        <v>0</v>
+      </c>
+      <c r="AZ59">
+        <v>0.09</v>
+      </c>
+      <c r="BA59">
+        <v>0.03</v>
+      </c>
+      <c r="BB59">
+        <v>0</v>
+      </c>
+      <c r="BC59">
+        <v>12.7</v>
+      </c>
+      <c r="BD59">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="BE59">
+        <v>0.06</v>
+      </c>
+      <c r="BF59">
+        <v>0.13</v>
+      </c>
+      <c r="BG59">
+        <v>0.13</v>
+      </c>
     </row>
-    <row r="60" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B60" s="1">
         <v>35497</v>
@@ -9361,10 +11358,43 @@
       <c r="AV60">
         <v>0.76</v>
       </c>
+      <c r="AW60">
+        <v>11.37</v>
+      </c>
+      <c r="AX60">
+        <v>0.01</v>
+      </c>
+      <c r="AY60">
+        <v>0</v>
+      </c>
+      <c r="AZ60">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="BA60">
+        <v>0.03</v>
+      </c>
+      <c r="BB60">
+        <v>0</v>
+      </c>
+      <c r="BC60">
+        <v>12.44</v>
+      </c>
+      <c r="BD60">
+        <v>0.06</v>
+      </c>
+      <c r="BE60">
+        <v>0.05</v>
+      </c>
+      <c r="BF60">
+        <v>0.11</v>
+      </c>
+      <c r="BG60">
+        <v>0.11</v>
+      </c>
     </row>
-    <row r="61" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>35498</v>
@@ -9507,10 +11537,43 @@
       <c r="AV61">
         <v>0.76</v>
       </c>
+      <c r="AW61">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="AX61">
+        <v>0.01</v>
+      </c>
+      <c r="AY61">
+        <v>0</v>
+      </c>
+      <c r="AZ61">
+        <v>0.13</v>
+      </c>
+      <c r="BA61">
+        <v>0.05</v>
+      </c>
+      <c r="BB61">
+        <v>0</v>
+      </c>
+      <c r="BC61">
+        <v>12.04</v>
+      </c>
+      <c r="BD61">
+        <v>0.08</v>
+      </c>
+      <c r="BE61">
+        <v>0.11</v>
+      </c>
+      <c r="BF61">
+        <v>0.19</v>
+      </c>
+      <c r="BG61">
+        <v>0.19</v>
+      </c>
     </row>
-    <row r="62" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B62" s="1">
         <v>35499</v>
@@ -9653,10 +11716,43 @@
       <c r="AV62">
         <v>0.76</v>
       </c>
+      <c r="AW62">
+        <v>19.79</v>
+      </c>
+      <c r="AX62">
+        <v>0.01</v>
+      </c>
+      <c r="AY62">
+        <v>0</v>
+      </c>
+      <c r="AZ62">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="BA62">
+        <v>0.06</v>
+      </c>
+      <c r="BB62">
+        <v>0</v>
+      </c>
+      <c r="BC62">
+        <v>11.48</v>
+      </c>
+      <c r="BD62">
+        <v>0.09</v>
+      </c>
+      <c r="BE62">
+        <v>0.12</v>
+      </c>
+      <c r="BF62">
+        <v>0.21</v>
+      </c>
+      <c r="BG62">
+        <v>0.21</v>
+      </c>
     </row>
-    <row r="63" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B63" s="1">
         <v>35500</v>
@@ -9799,10 +11895,43 @@
       <c r="AV63">
         <v>0.76</v>
       </c>
+      <c r="AW63">
+        <v>17.059999999999999</v>
+      </c>
+      <c r="AX63">
+        <v>0.01</v>
+      </c>
+      <c r="AY63">
+        <v>0</v>
+      </c>
+      <c r="AZ63">
+        <v>0.11</v>
+      </c>
+      <c r="BA63">
+        <v>0.05</v>
+      </c>
+      <c r="BB63">
+        <v>0</v>
+      </c>
+      <c r="BC63">
+        <v>10.98</v>
+      </c>
+      <c r="BD63">
+        <v>0.09</v>
+      </c>
+      <c r="BE63">
+        <v>0.08</v>
+      </c>
+      <c r="BF63">
+        <v>0.17</v>
+      </c>
+      <c r="BG63">
+        <v>0.17</v>
+      </c>
     </row>
-    <row r="64" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B64" s="1">
         <v>35501</v>
@@ -9945,10 +12074,43 @@
       <c r="AV64">
         <v>0.76</v>
       </c>
+      <c r="AW64">
+        <v>16.82</v>
+      </c>
+      <c r="AX64">
+        <v>0.01</v>
+      </c>
+      <c r="AY64">
+        <v>0</v>
+      </c>
+      <c r="AZ64">
+        <v>0.12</v>
+      </c>
+      <c r="BA64">
+        <v>0.05</v>
+      </c>
+      <c r="BB64">
+        <v>0</v>
+      </c>
+      <c r="BC64">
+        <v>10.55</v>
+      </c>
+      <c r="BD64">
+        <v>0.08</v>
+      </c>
+      <c r="BE64">
+        <v>0.1</v>
+      </c>
+      <c r="BF64">
+        <v>0.18</v>
+      </c>
+      <c r="BG64">
+        <v>0.18</v>
+      </c>
     </row>
-    <row r="65" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B65" s="1">
         <v>35502</v>
@@ -10091,10 +12253,43 @@
       <c r="AV65">
         <v>0.76</v>
       </c>
+      <c r="AW65">
+        <v>18.010000000000002</v>
+      </c>
+      <c r="AX65">
+        <v>0.01</v>
+      </c>
+      <c r="AY65">
+        <v>0</v>
+      </c>
+      <c r="AZ65">
+        <v>0.12</v>
+      </c>
+      <c r="BA65">
+        <v>0.06</v>
+      </c>
+      <c r="BB65">
+        <v>0</v>
+      </c>
+      <c r="BC65">
+        <v>10.11</v>
+      </c>
+      <c r="BD65">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="BE65">
+        <v>0.11</v>
+      </c>
+      <c r="BF65">
+        <v>0.19</v>
+      </c>
+      <c r="BG65">
+        <v>0.19</v>
+      </c>
     </row>
-    <row r="66" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B66" s="1">
         <v>35503</v>
@@ -10237,10 +12432,43 @@
       <c r="AV66">
         <v>0.76</v>
       </c>
+      <c r="AW66">
+        <v>22.43</v>
+      </c>
+      <c r="AX66">
+        <v>0.02</v>
+      </c>
+      <c r="AY66">
+        <v>0</v>
+      </c>
+      <c r="AZ66">
+        <v>0.16</v>
+      </c>
+      <c r="BA66">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="BB66">
+        <v>0</v>
+      </c>
+      <c r="BC66">
+        <v>13.65</v>
+      </c>
+      <c r="BD66">
+        <v>0.05</v>
+      </c>
+      <c r="BE66">
+        <v>0.2</v>
+      </c>
+      <c r="BF66">
+        <v>0.25</v>
+      </c>
+      <c r="BG66">
+        <v>0.25</v>
+      </c>
     </row>
-    <row r="67" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B67" s="1">
         <v>35504</v>
@@ -10383,10 +12611,43 @@
       <c r="AV67">
         <v>0.76</v>
       </c>
+      <c r="AW67">
+        <v>22.75</v>
+      </c>
+      <c r="AX67">
+        <v>0.02</v>
+      </c>
+      <c r="AY67">
+        <v>0</v>
+      </c>
+      <c r="AZ67">
+        <v>0.15</v>
+      </c>
+      <c r="BA67">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="BB67">
+        <v>0</v>
+      </c>
+      <c r="BC67">
+        <v>13.17</v>
+      </c>
+      <c r="BD67">
+        <v>0.04</v>
+      </c>
+      <c r="BE67">
+        <v>0.2</v>
+      </c>
+      <c r="BF67">
+        <v>0.24</v>
+      </c>
+      <c r="BG67">
+        <v>0.24</v>
+      </c>
     </row>
-    <row r="68" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B68" s="1">
         <v>35505</v>
@@ -10529,10 +12790,43 @@
       <c r="AV68">
         <v>0.76</v>
       </c>
+      <c r="AW68">
+        <v>22.75</v>
+      </c>
+      <c r="AX68">
+        <v>0.02</v>
+      </c>
+      <c r="AY68">
+        <v>0</v>
+      </c>
+      <c r="AZ68">
+        <v>0.16</v>
+      </c>
+      <c r="BA68">
+        <v>0.08</v>
+      </c>
+      <c r="BB68">
+        <v>0</v>
+      </c>
+      <c r="BC68">
+        <v>12.47</v>
+      </c>
+      <c r="BD68">
+        <v>0.02</v>
+      </c>
+      <c r="BE68">
+        <v>0.24</v>
+      </c>
+      <c r="BF68">
+        <v>0.25</v>
+      </c>
+      <c r="BG68">
+        <v>0.25</v>
+      </c>
     </row>
-    <row r="69" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B69" s="1">
         <v>35506</v>
@@ -10675,10 +12969,43 @@
       <c r="AV69">
         <v>0.76</v>
       </c>
+      <c r="AW69">
+        <v>20.85</v>
+      </c>
+      <c r="AX69">
+        <v>0.01</v>
+      </c>
+      <c r="AY69">
+        <v>0</v>
+      </c>
+      <c r="AZ69">
+        <v>0.13</v>
+      </c>
+      <c r="BA69">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="BB69">
+        <v>0</v>
+      </c>
+      <c r="BC69">
+        <v>11.6</v>
+      </c>
+      <c r="BD69">
+        <v>0</v>
+      </c>
+      <c r="BE69">
+        <v>0.22</v>
+      </c>
+      <c r="BF69">
+        <v>0.22</v>
+      </c>
+      <c r="BG69">
+        <v>0.22</v>
+      </c>
     </row>
-    <row r="70" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B70" s="1">
         <v>35507</v>
@@ -10821,10 +13148,43 @@
       <c r="AV70">
         <v>0.76</v>
       </c>
+      <c r="AW70">
+        <v>20.85</v>
+      </c>
+      <c r="AX70">
+        <v>0.01</v>
+      </c>
+      <c r="AY70">
+        <v>0</v>
+      </c>
+      <c r="AZ70">
+        <v>0.12</v>
+      </c>
+      <c r="BA70">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="BB70">
+        <v>0</v>
+      </c>
+      <c r="BC70">
+        <v>10.82</v>
+      </c>
+      <c r="BD70">
+        <v>0</v>
+      </c>
+      <c r="BE70">
+        <v>0.2</v>
+      </c>
+      <c r="BF70">
+        <v>0.2</v>
+      </c>
+      <c r="BG70">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="71" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B71" s="1">
         <v>35508</v>
@@ -10967,10 +13327,43 @@
       <c r="AV71">
         <v>0.76</v>
       </c>
+      <c r="AW71">
+        <v>20.85</v>
+      </c>
+      <c r="AX71">
+        <v>0.01</v>
+      </c>
+      <c r="AY71">
+        <v>0</v>
+      </c>
+      <c r="AZ71">
+        <v>0.13</v>
+      </c>
+      <c r="BA71">
+        <v>0.08</v>
+      </c>
+      <c r="BB71">
+        <v>0</v>
+      </c>
+      <c r="BC71">
+        <v>10.09</v>
+      </c>
+      <c r="BD71">
+        <v>0</v>
+      </c>
+      <c r="BE71">
+        <v>0.22</v>
+      </c>
+      <c r="BF71">
+        <v>0.22</v>
+      </c>
+      <c r="BG71">
+        <v>0.22</v>
+      </c>
     </row>
-    <row r="72" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B72" s="1">
         <v>35509</v>
@@ -11113,10 +13506,43 @@
       <c r="AV72">
         <v>0.76</v>
       </c>
+      <c r="AW72">
+        <v>21.8</v>
+      </c>
+      <c r="AX72">
+        <v>0.01</v>
+      </c>
+      <c r="AY72">
+        <v>0</v>
+      </c>
+      <c r="AZ72">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="BA72">
+        <v>0.09</v>
+      </c>
+      <c r="BB72">
+        <v>0</v>
+      </c>
+      <c r="BC72">
+        <v>9.32</v>
+      </c>
+      <c r="BD72">
+        <v>0</v>
+      </c>
+      <c r="BE72">
+        <v>0.24</v>
+      </c>
+      <c r="BF72">
+        <v>0.24</v>
+      </c>
+      <c r="BG72">
+        <v>0.24</v>
+      </c>
     </row>
-    <row r="73" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B73" s="1">
         <v>35510</v>
@@ -11259,10 +13685,43 @@
       <c r="AV73">
         <v>0.76</v>
       </c>
+      <c r="AW73">
+        <v>22.75</v>
+      </c>
+      <c r="AX73">
+        <v>0.02</v>
+      </c>
+      <c r="AY73">
+        <v>0</v>
+      </c>
+      <c r="AZ73">
+        <v>0.16</v>
+      </c>
+      <c r="BA73">
+        <v>0.11</v>
+      </c>
+      <c r="BB73">
+        <v>0</v>
+      </c>
+      <c r="BC73">
+        <v>8.5299999999999994</v>
+      </c>
+      <c r="BD73">
+        <v>0</v>
+      </c>
+      <c r="BE73">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="BF73">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="BG73">
+        <v>0.28000000000000003</v>
+      </c>
     </row>
-    <row r="74" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B74" s="1">
         <v>35511</v>
@@ -11405,10 +13864,43 @@
       <c r="AV74">
         <v>0.76</v>
       </c>
+      <c r="AW74">
+        <v>21.8</v>
+      </c>
+      <c r="AX74">
+        <v>0.01</v>
+      </c>
+      <c r="AY74">
+        <v>0</v>
+      </c>
+      <c r="AZ74">
+        <v>0.41</v>
+      </c>
+      <c r="BA74">
+        <v>0</v>
+      </c>
+      <c r="BB74">
+        <v>0</v>
+      </c>
+      <c r="BC74">
+        <v>18.27</v>
+      </c>
+      <c r="BD74">
+        <v>0</v>
+      </c>
+      <c r="BE74">
+        <v>0.42</v>
+      </c>
+      <c r="BF74">
+        <v>0.42</v>
+      </c>
+      <c r="BG74">
+        <v>0.42</v>
+      </c>
     </row>
-    <row r="75" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B75" s="1">
         <v>35512</v>
@@ -11551,10 +14043,43 @@
       <c r="AV75">
         <v>0.76</v>
       </c>
+      <c r="AW75">
+        <v>18.010000000000002</v>
+      </c>
+      <c r="AX75">
+        <v>0.01</v>
+      </c>
+      <c r="AY75">
+        <v>0</v>
+      </c>
+      <c r="AZ75">
+        <v>0</v>
+      </c>
+      <c r="BA75">
+        <v>0.16</v>
+      </c>
+      <c r="BB75">
+        <v>0</v>
+      </c>
+      <c r="BC75">
+        <v>17.54</v>
+      </c>
+      <c r="BD75">
+        <v>0</v>
+      </c>
+      <c r="BE75">
+        <v>0.17</v>
+      </c>
+      <c r="BF75">
+        <v>0.17</v>
+      </c>
+      <c r="BG75">
+        <v>0.17</v>
+      </c>
     </row>
-    <row r="76" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B76" s="1">
         <v>35513</v>
@@ -11697,10 +14222,43 @@
       <c r="AV76">
         <v>0.76</v>
       </c>
+      <c r="AW76">
+        <v>16.11</v>
+      </c>
+      <c r="AX76">
+        <v>0</v>
+      </c>
+      <c r="AY76">
+        <v>0</v>
+      </c>
+      <c r="AZ76">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="BA76">
+        <v>0</v>
+      </c>
+      <c r="BB76">
+        <v>0</v>
+      </c>
+      <c r="BC76">
+        <v>17.579999999999998</v>
+      </c>
+      <c r="BD76">
+        <v>0</v>
+      </c>
+      <c r="BE76">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="BF76">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="BG76">
+        <v>0.14000000000000001</v>
+      </c>
     </row>
-    <row r="77" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B77" s="1">
         <v>35514</v>
@@ -11843,10 +14401,43 @@
       <c r="AV77">
         <v>0.76</v>
       </c>
+      <c r="AW77">
+        <v>22.75</v>
+      </c>
+      <c r="AX77">
+        <v>0</v>
+      </c>
+      <c r="AY77">
+        <v>0</v>
+      </c>
+      <c r="AZ77">
+        <v>0.21</v>
+      </c>
+      <c r="BA77">
+        <v>0</v>
+      </c>
+      <c r="BB77">
+        <v>0</v>
+      </c>
+      <c r="BC77">
+        <v>17.41</v>
+      </c>
+      <c r="BD77">
+        <v>0</v>
+      </c>
+      <c r="BE77">
+        <v>0.21</v>
+      </c>
+      <c r="BF77">
+        <v>0.21</v>
+      </c>
+      <c r="BG77">
+        <v>0.21</v>
+      </c>
     </row>
-    <row r="78" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B78" s="1">
         <v>35515</v>
@@ -11989,10 +14580,43 @@
       <c r="AV78">
         <v>0.76</v>
       </c>
+      <c r="AW78">
+        <v>18.940000000000001</v>
+      </c>
+      <c r="AX78">
+        <v>0</v>
+      </c>
+      <c r="AY78">
+        <v>0</v>
+      </c>
+      <c r="AZ78">
+        <v>0.22</v>
+      </c>
+      <c r="BA78">
+        <v>0</v>
+      </c>
+      <c r="BB78">
+        <v>0</v>
+      </c>
+      <c r="BC78">
+        <v>17.05</v>
+      </c>
+      <c r="BD78">
+        <v>0</v>
+      </c>
+      <c r="BE78">
+        <v>0.22</v>
+      </c>
+      <c r="BF78">
+        <v>0.22</v>
+      </c>
+      <c r="BG78">
+        <v>0.22</v>
+      </c>
     </row>
-    <row r="79" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B79" s="1">
         <v>35516</v>
@@ -12135,10 +14759,43 @@
       <c r="AV79">
         <v>0.76</v>
       </c>
+      <c r="AW79">
+        <v>18.010000000000002</v>
+      </c>
+      <c r="AX79">
+        <v>0</v>
+      </c>
+      <c r="AY79">
+        <v>0</v>
+      </c>
+      <c r="AZ79">
+        <v>0.16</v>
+      </c>
+      <c r="BA79">
+        <v>0</v>
+      </c>
+      <c r="BB79">
+        <v>0</v>
+      </c>
+      <c r="BC79">
+        <v>16.34</v>
+      </c>
+      <c r="BD79">
+        <v>0</v>
+      </c>
+      <c r="BE79">
+        <v>0.16</v>
+      </c>
+      <c r="BF79">
+        <v>0.16</v>
+      </c>
+      <c r="BG79">
+        <v>0.16</v>
+      </c>
     </row>
-    <row r="80" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B80" s="1">
         <v>35517</v>
@@ -12281,10 +14938,43 @@
       <c r="AV80">
         <v>0.76</v>
       </c>
+      <c r="AW80">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="AX80">
+        <v>0</v>
+      </c>
+      <c r="AY80">
+        <v>0</v>
+      </c>
+      <c r="AZ80">
+        <v>0.21</v>
+      </c>
+      <c r="BA80">
+        <v>0</v>
+      </c>
+      <c r="BB80">
+        <v>0</v>
+      </c>
+      <c r="BC80">
+        <v>15.59</v>
+      </c>
+      <c r="BD80">
+        <v>0</v>
+      </c>
+      <c r="BE80">
+        <v>0.22</v>
+      </c>
+      <c r="BF80">
+        <v>0.22</v>
+      </c>
+      <c r="BG80">
+        <v>0.22</v>
+      </c>
     </row>
-    <row r="81" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B81" s="1">
         <v>35518</v>
@@ -12427,10 +15117,43 @@
       <c r="AV81">
         <v>0.76</v>
       </c>
+      <c r="AW81">
+        <v>18.54</v>
+      </c>
+      <c r="AX81">
+        <v>0</v>
+      </c>
+      <c r="AY81">
+        <v>0</v>
+      </c>
+      <c r="AZ81">
+        <v>0.24</v>
+      </c>
+      <c r="BA81">
+        <v>0</v>
+      </c>
+      <c r="BB81">
+        <v>0</v>
+      </c>
+      <c r="BC81">
+        <v>14.69</v>
+      </c>
+      <c r="BD81">
+        <v>0</v>
+      </c>
+      <c r="BE81">
+        <v>0.24</v>
+      </c>
+      <c r="BF81">
+        <v>0.24</v>
+      </c>
+      <c r="BG81">
+        <v>0.24</v>
+      </c>
     </row>
-    <row r="82" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B82" s="1">
         <v>35519</v>
@@ -12573,10 +15296,43 @@
       <c r="AV82">
         <v>0.76</v>
       </c>
+      <c r="AW82">
+        <v>18.53</v>
+      </c>
+      <c r="AX82">
+        <v>0</v>
+      </c>
+      <c r="AY82">
+        <v>0</v>
+      </c>
+      <c r="AZ82">
+        <v>0.23</v>
+      </c>
+      <c r="BA82">
+        <v>0</v>
+      </c>
+      <c r="BB82">
+        <v>0</v>
+      </c>
+      <c r="BC82">
+        <v>13.76</v>
+      </c>
+      <c r="BD82">
+        <v>0</v>
+      </c>
+      <c r="BE82">
+        <v>0.23</v>
+      </c>
+      <c r="BF82">
+        <v>0.23</v>
+      </c>
+      <c r="BG82">
+        <v>0.23</v>
+      </c>
     </row>
-    <row r="83" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B83" s="1">
         <v>35520</v>
@@ -12719,10 +15475,43 @@
       <c r="AV83">
         <v>0.76</v>
       </c>
+      <c r="AW83">
+        <v>18.010000000000002</v>
+      </c>
+      <c r="AX83">
+        <v>0</v>
+      </c>
+      <c r="AY83">
+        <v>0</v>
+      </c>
+      <c r="AZ83">
+        <v>0.23</v>
+      </c>
+      <c r="BA83">
+        <v>0</v>
+      </c>
+      <c r="BB83">
+        <v>0</v>
+      </c>
+      <c r="BC83">
+        <v>12.89</v>
+      </c>
+      <c r="BD83">
+        <v>0</v>
+      </c>
+      <c r="BE83">
+        <v>0.23</v>
+      </c>
+      <c r="BF83">
+        <v>0.23</v>
+      </c>
+      <c r="BG83">
+        <v>0.23</v>
+      </c>
     </row>
-    <row r="84" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B84" s="1">
         <v>35521</v>
@@ -12865,10 +15654,43 @@
       <c r="AV84">
         <v>0.76</v>
       </c>
+      <c r="AW84">
+        <v>18.010000000000002</v>
+      </c>
+      <c r="AX84">
+        <v>0</v>
+      </c>
+      <c r="AY84">
+        <v>0</v>
+      </c>
+      <c r="AZ84">
+        <v>0.19</v>
+      </c>
+      <c r="BA84">
+        <v>0</v>
+      </c>
+      <c r="BB84">
+        <v>0</v>
+      </c>
+      <c r="BC84">
+        <v>12.04</v>
+      </c>
+      <c r="BD84">
+        <v>0</v>
+      </c>
+      <c r="BE84">
+        <v>0.19</v>
+      </c>
+      <c r="BF84">
+        <v>0.19</v>
+      </c>
+      <c r="BG84">
+        <v>0.19</v>
+      </c>
     </row>
-    <row r="85" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B85" s="1">
         <v>35522</v>
@@ -13011,10 +15833,43 @@
       <c r="AV85">
         <v>0.76</v>
       </c>
+      <c r="AW85">
+        <v>18.63</v>
+      </c>
+      <c r="AX85">
+        <v>0</v>
+      </c>
+      <c r="AY85">
+        <v>0</v>
+      </c>
+      <c r="AZ85">
+        <v>0.23</v>
+      </c>
+      <c r="BA85">
+        <v>0</v>
+      </c>
+      <c r="BB85">
+        <v>0</v>
+      </c>
+      <c r="BC85">
+        <v>12.77</v>
+      </c>
+      <c r="BD85">
+        <v>0</v>
+      </c>
+      <c r="BE85">
+        <v>0.23</v>
+      </c>
+      <c r="BF85">
+        <v>0.23</v>
+      </c>
+      <c r="BG85">
+        <v>0.23</v>
+      </c>
     </row>
-    <row r="86" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B86" s="1">
         <v>35523</v>
@@ -13157,10 +16012,43 @@
       <c r="AV86">
         <v>0.76</v>
       </c>
+      <c r="AW86">
+        <v>17.059999999999999</v>
+      </c>
+      <c r="AX86">
+        <v>0</v>
+      </c>
+      <c r="AY86">
+        <v>0</v>
+      </c>
+      <c r="AZ86">
+        <v>0.24</v>
+      </c>
+      <c r="BA86">
+        <v>0</v>
+      </c>
+      <c r="BB86">
+        <v>0</v>
+      </c>
+      <c r="BC86">
+        <v>11.93</v>
+      </c>
+      <c r="BD86">
+        <v>0</v>
+      </c>
+      <c r="BE86">
+        <v>0.24</v>
+      </c>
+      <c r="BF86">
+        <v>0.24</v>
+      </c>
+      <c r="BG86">
+        <v>0.24</v>
+      </c>
     </row>
-    <row r="87" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B87" s="1">
         <v>35524</v>
@@ -13303,10 +16191,43 @@
       <c r="AV87">
         <v>0.76</v>
       </c>
+      <c r="AW87">
+        <v>18.96</v>
+      </c>
+      <c r="AX87">
+        <v>0</v>
+      </c>
+      <c r="AY87">
+        <v>0</v>
+      </c>
+      <c r="AZ87">
+        <v>0.26</v>
+      </c>
+      <c r="BA87">
+        <v>0</v>
+      </c>
+      <c r="BB87">
+        <v>0</v>
+      </c>
+      <c r="BC87">
+        <v>11.37</v>
+      </c>
+      <c r="BD87">
+        <v>0</v>
+      </c>
+      <c r="BE87">
+        <v>0.26</v>
+      </c>
+      <c r="BF87">
+        <v>0.26</v>
+      </c>
+      <c r="BG87">
+        <v>0.26</v>
+      </c>
     </row>
-    <row r="88" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B88" s="1">
         <v>35525</v>
@@ -13449,10 +16370,43 @@
       <c r="AV88">
         <v>0.76</v>
       </c>
+      <c r="AW88">
+        <v>18.010000000000002</v>
+      </c>
+      <c r="AX88">
+        <v>0</v>
+      </c>
+      <c r="AY88">
+        <v>0</v>
+      </c>
+      <c r="AZ88">
+        <v>0.25</v>
+      </c>
+      <c r="BA88">
+        <v>0</v>
+      </c>
+      <c r="BB88">
+        <v>0</v>
+      </c>
+      <c r="BC88">
+        <v>10.48</v>
+      </c>
+      <c r="BD88">
+        <v>0</v>
+      </c>
+      <c r="BE88">
+        <v>0.25</v>
+      </c>
+      <c r="BF88">
+        <v>0.25</v>
+      </c>
+      <c r="BG88">
+        <v>0.25</v>
+      </c>
     </row>
-    <row r="89" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B89" s="1">
         <v>35526</v>
@@ -13595,10 +16549,43 @@
       <c r="AV89">
         <v>0.76</v>
       </c>
+      <c r="AW89">
+        <v>18.010000000000002</v>
+      </c>
+      <c r="AX89">
+        <v>0</v>
+      </c>
+      <c r="AY89">
+        <v>0</v>
+      </c>
+      <c r="AZ89">
+        <v>0.23</v>
+      </c>
+      <c r="BA89">
+        <v>0</v>
+      </c>
+      <c r="BB89">
+        <v>0</v>
+      </c>
+      <c r="BC89">
+        <v>9.6300000000000008</v>
+      </c>
+      <c r="BD89">
+        <v>0</v>
+      </c>
+      <c r="BE89">
+        <v>0.23</v>
+      </c>
+      <c r="BF89">
+        <v>0.23</v>
+      </c>
+      <c r="BG89">
+        <v>0.23</v>
+      </c>
     </row>
-    <row r="90" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B90" s="1">
         <v>35527</v>
@@ -13741,10 +16728,43 @@
       <c r="AV90">
         <v>0.76</v>
       </c>
+      <c r="AW90">
+        <v>16.46</v>
+      </c>
+      <c r="AX90">
+        <v>0</v>
+      </c>
+      <c r="AY90">
+        <v>0</v>
+      </c>
+      <c r="AZ90">
+        <v>0.24</v>
+      </c>
+      <c r="BA90">
+        <v>0</v>
+      </c>
+      <c r="BB90">
+        <v>0</v>
+      </c>
+      <c r="BC90">
+        <v>8.84</v>
+      </c>
+      <c r="BD90">
+        <v>0</v>
+      </c>
+      <c r="BE90">
+        <v>0.24</v>
+      </c>
+      <c r="BF90">
+        <v>0.24</v>
+      </c>
+      <c r="BG90">
+        <v>0.24</v>
+      </c>
     </row>
-    <row r="91" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B91" s="1">
         <v>35528</v>
@@ -13887,10 +16907,43 @@
       <c r="AV91">
         <v>0.76</v>
       </c>
+      <c r="AW91">
+        <v>18.12</v>
+      </c>
+      <c r="AX91">
+        <v>0</v>
+      </c>
+      <c r="AY91">
+        <v>0</v>
+      </c>
+      <c r="AZ91">
+        <v>0.24</v>
+      </c>
+      <c r="BA91">
+        <v>0</v>
+      </c>
+      <c r="BB91">
+        <v>0</v>
+      </c>
+      <c r="BC91">
+        <v>8.0399999999999991</v>
+      </c>
+      <c r="BD91">
+        <v>0</v>
+      </c>
+      <c r="BE91">
+        <v>0.24</v>
+      </c>
+      <c r="BF91">
+        <v>0.24</v>
+      </c>
+      <c r="BG91">
+        <v>0.24</v>
+      </c>
     </row>
-    <row r="92" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B92" s="1">
         <v>35529</v>
@@ -14033,10 +17086,43 @@
       <c r="AV92">
         <v>0.76</v>
       </c>
+      <c r="AW92">
+        <v>15.38</v>
+      </c>
+      <c r="AX92">
+        <v>0</v>
+      </c>
+      <c r="AY92">
+        <v>0</v>
+      </c>
+      <c r="AZ92">
+        <v>0.1</v>
+      </c>
+      <c r="BA92">
+        <v>0</v>
+      </c>
+      <c r="BB92">
+        <v>0</v>
+      </c>
+      <c r="BC92">
+        <v>7.28</v>
+      </c>
+      <c r="BD92">
+        <v>0</v>
+      </c>
+      <c r="BE92">
+        <v>0.1</v>
+      </c>
+      <c r="BF92">
+        <v>0.1</v>
+      </c>
+      <c r="BG92">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="93" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B93" s="1">
         <v>35530</v>
@@ -14179,10 +17265,43 @@
       <c r="AV93">
         <v>0.76</v>
       </c>
+      <c r="AW93">
+        <v>13.94</v>
+      </c>
+      <c r="AX93">
+        <v>0</v>
+      </c>
+      <c r="AY93">
+        <v>0</v>
+      </c>
+      <c r="AZ93">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="BA93">
+        <v>0</v>
+      </c>
+      <c r="BB93">
+        <v>0</v>
+      </c>
+      <c r="BC93">
+        <v>6.85</v>
+      </c>
+      <c r="BD93">
+        <v>0</v>
+      </c>
+      <c r="BE93">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="BF93">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="BG93">
+        <v>0.14000000000000001</v>
+      </c>
     </row>
-    <row r="94" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B94" s="1">
         <v>35531</v>
@@ -14325,10 +17444,43 @@
       <c r="AV94">
         <v>0.76</v>
       </c>
+      <c r="AW94">
+        <v>14.89</v>
+      </c>
+      <c r="AX94">
+        <v>0</v>
+      </c>
+      <c r="AY94">
+        <v>0</v>
+      </c>
+      <c r="AZ94">
+        <v>0.16</v>
+      </c>
+      <c r="BA94">
+        <v>0</v>
+      </c>
+      <c r="BB94">
+        <v>0</v>
+      </c>
+      <c r="BC94">
+        <v>10.63</v>
+      </c>
+      <c r="BD94">
+        <v>0</v>
+      </c>
+      <c r="BE94">
+        <v>0.16</v>
+      </c>
+      <c r="BF94">
+        <v>0.16</v>
+      </c>
+      <c r="BG94">
+        <v>0.16</v>
+      </c>
     </row>
-    <row r="95" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B95" s="1">
         <v>35532</v>
@@ -14471,10 +17623,43 @@
       <c r="AV95">
         <v>0.76</v>
       </c>
+      <c r="AW95">
+        <v>13.47</v>
+      </c>
+      <c r="AX95">
+        <v>0</v>
+      </c>
+      <c r="AY95">
+        <v>0</v>
+      </c>
+      <c r="AZ95">
+        <v>0.15</v>
+      </c>
+      <c r="BA95">
+        <v>0</v>
+      </c>
+      <c r="BB95">
+        <v>0</v>
+      </c>
+      <c r="BC95">
+        <v>10.32</v>
+      </c>
+      <c r="BD95">
+        <v>0</v>
+      </c>
+      <c r="BE95">
+        <v>0.15</v>
+      </c>
+      <c r="BF95">
+        <v>0.15</v>
+      </c>
+      <c r="BG95">
+        <v>0.15</v>
+      </c>
     </row>
-    <row r="96" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B96" s="1">
         <v>35533</v>
@@ -14617,10 +17802,43 @@
       <c r="AV96">
         <v>0.76</v>
       </c>
+      <c r="AW96">
+        <v>16.02</v>
+      </c>
+      <c r="AX96">
+        <v>0</v>
+      </c>
+      <c r="AY96">
+        <v>0</v>
+      </c>
+      <c r="AZ96">
+        <v>0.13</v>
+      </c>
+      <c r="BA96">
+        <v>0</v>
+      </c>
+      <c r="BB96">
+        <v>0</v>
+      </c>
+      <c r="BC96">
+        <v>9.74</v>
+      </c>
+      <c r="BD96">
+        <v>0</v>
+      </c>
+      <c r="BE96">
+        <v>0.13</v>
+      </c>
+      <c r="BF96">
+        <v>0.13</v>
+      </c>
+      <c r="BG96">
+        <v>0.13</v>
+      </c>
     </row>
-    <row r="97" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B97" s="1">
         <v>35534</v>
@@ -14763,10 +17981,43 @@
       <c r="AV97">
         <v>0.76</v>
       </c>
+      <c r="AW97">
+        <v>14.97</v>
+      </c>
+      <c r="AX97">
+        <v>0</v>
+      </c>
+      <c r="AY97">
+        <v>0</v>
+      </c>
+      <c r="AZ97">
+        <v>0.12</v>
+      </c>
+      <c r="BA97">
+        <v>0</v>
+      </c>
+      <c r="BB97">
+        <v>0</v>
+      </c>
+      <c r="BC97">
+        <v>9.25</v>
+      </c>
+      <c r="BD97">
+        <v>0</v>
+      </c>
+      <c r="BE97">
+        <v>0.12</v>
+      </c>
+      <c r="BF97">
+        <v>0.12</v>
+      </c>
+      <c r="BG97">
+        <v>0.12</v>
+      </c>
     </row>
-    <row r="98" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B98" s="1">
         <v>35535</v>
@@ -14909,10 +18160,43 @@
       <c r="AV98">
         <v>0.76</v>
       </c>
+      <c r="AW98">
+        <v>12.41</v>
+      </c>
+      <c r="AX98">
+        <v>0</v>
+      </c>
+      <c r="AY98">
+        <v>0</v>
+      </c>
+      <c r="AZ98">
+        <v>0.13</v>
+      </c>
+      <c r="BA98">
+        <v>0</v>
+      </c>
+      <c r="BB98">
+        <v>0</v>
+      </c>
+      <c r="BC98">
+        <v>8.77</v>
+      </c>
+      <c r="BD98">
+        <v>0</v>
+      </c>
+      <c r="BE98">
+        <v>0.13</v>
+      </c>
+      <c r="BF98">
+        <v>0.13</v>
+      </c>
+      <c r="BG98">
+        <v>0.13</v>
+      </c>
     </row>
-    <row r="99" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B99" s="1">
         <v>35536</v>
@@ -15055,10 +18339,43 @@
       <c r="AV99">
         <v>0.76</v>
       </c>
+      <c r="AW99">
+        <v>10.45</v>
+      </c>
+      <c r="AX99">
+        <v>0</v>
+      </c>
+      <c r="AY99">
+        <v>0</v>
+      </c>
+      <c r="AZ99">
+        <v>0.13</v>
+      </c>
+      <c r="BA99">
+        <v>0</v>
+      </c>
+      <c r="BB99">
+        <v>0</v>
+      </c>
+      <c r="BC99">
+        <v>8.2799999999999994</v>
+      </c>
+      <c r="BD99">
+        <v>0</v>
+      </c>
+      <c r="BE99">
+        <v>0.13</v>
+      </c>
+      <c r="BF99">
+        <v>0.13</v>
+      </c>
+      <c r="BG99">
+        <v>0.13</v>
+      </c>
     </row>
-    <row r="100" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B100" s="1">
         <v>35537</v>
@@ -15201,10 +18518,43 @@
       <c r="AV100">
         <v>0.76</v>
       </c>
+      <c r="AW100">
+        <v>15.68</v>
+      </c>
+      <c r="AX100">
+        <v>0</v>
+      </c>
+      <c r="AY100">
+        <v>0</v>
+      </c>
+      <c r="AZ100">
+        <v>0.13</v>
+      </c>
+      <c r="BA100">
+        <v>0</v>
+      </c>
+      <c r="BB100">
+        <v>0</v>
+      </c>
+      <c r="BC100">
+        <v>7.8</v>
+      </c>
+      <c r="BD100">
+        <v>0</v>
+      </c>
+      <c r="BE100">
+        <v>0.13</v>
+      </c>
+      <c r="BF100">
+        <v>0.13</v>
+      </c>
+      <c r="BG100">
+        <v>0.13</v>
+      </c>
     </row>
-    <row r="101" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B101" s="1">
         <v>35538</v>
@@ -15347,10 +18697,43 @@
       <c r="AV101">
         <v>0.75900000000000001</v>
       </c>
+      <c r="AW101">
+        <v>14.14</v>
+      </c>
+      <c r="AX101">
+        <v>0</v>
+      </c>
+      <c r="AY101">
+        <v>0.15</v>
+      </c>
+      <c r="AZ101">
+        <v>0</v>
+      </c>
+      <c r="BA101">
+        <v>0</v>
+      </c>
+      <c r="BB101">
+        <v>0</v>
+      </c>
+      <c r="BC101">
+        <v>12.2</v>
+      </c>
+      <c r="BD101">
+        <v>0</v>
+      </c>
+      <c r="BE101">
+        <v>0.15</v>
+      </c>
+      <c r="BF101">
+        <v>0.15</v>
+      </c>
+      <c r="BG101">
+        <v>0.15</v>
+      </c>
     </row>
-    <row r="102" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B102" s="1">
         <v>35539</v>
@@ -15493,10 +18876,43 @@
       <c r="AV102">
         <v>0.75800000000000001</v>
       </c>
+      <c r="AW102">
+        <v>13.44</v>
+      </c>
+      <c r="AX102">
+        <v>0</v>
+      </c>
+      <c r="AY102">
+        <v>0.17</v>
+      </c>
+      <c r="AZ102">
+        <v>0</v>
+      </c>
+      <c r="BA102">
+        <v>0</v>
+      </c>
+      <c r="BB102">
+        <v>0</v>
+      </c>
+      <c r="BC102">
+        <v>12.02</v>
+      </c>
+      <c r="BD102">
+        <v>0</v>
+      </c>
+      <c r="BE102">
+        <v>0.17</v>
+      </c>
+      <c r="BF102">
+        <v>0.17</v>
+      </c>
+      <c r="BG102">
+        <v>0.17</v>
+      </c>
     </row>
-    <row r="103" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B103" s="1">
         <v>35540</v>
@@ -15639,10 +19055,43 @@
       <c r="AV103">
         <v>0.75800000000000001</v>
       </c>
+      <c r="AW103">
+        <v>12.12</v>
+      </c>
+      <c r="AX103">
+        <v>0</v>
+      </c>
+      <c r="AY103">
+        <v>0</v>
+      </c>
+      <c r="AZ103">
+        <v>0.12</v>
+      </c>
+      <c r="BA103">
+        <v>0</v>
+      </c>
+      <c r="BB103">
+        <v>0</v>
+      </c>
+      <c r="BC103">
+        <v>11.59</v>
+      </c>
+      <c r="BD103">
+        <v>0</v>
+      </c>
+      <c r="BE103">
+        <v>0.12</v>
+      </c>
+      <c r="BF103">
+        <v>0.12</v>
+      </c>
+      <c r="BG103">
+        <v>0.12</v>
+      </c>
     </row>
-    <row r="104" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B104" s="1">
         <v>35541</v>
@@ -15785,10 +19234,43 @@
       <c r="AV104">
         <v>0.754</v>
       </c>
+      <c r="AW104">
+        <v>11.93</v>
+      </c>
+      <c r="AX104">
+        <v>0</v>
+      </c>
+      <c r="AY104">
+        <v>0.08</v>
+      </c>
+      <c r="AZ104">
+        <v>0</v>
+      </c>
+      <c r="BA104">
+        <v>0</v>
+      </c>
+      <c r="BB104">
+        <v>0</v>
+      </c>
+      <c r="BC104">
+        <v>11.15</v>
+      </c>
+      <c r="BD104">
+        <v>0</v>
+      </c>
+      <c r="BE104">
+        <v>0.08</v>
+      </c>
+      <c r="BF104">
+        <v>0.08</v>
+      </c>
+      <c r="BG104">
+        <v>0.08</v>
+      </c>
     </row>
-    <row r="105" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B105" s="1">
         <v>35542</v>
@@ -15931,10 +19413,43 @@
       <c r="AV105">
         <v>0.75</v>
       </c>
+      <c r="AW105">
+        <v>15.28</v>
+      </c>
+      <c r="AX105">
+        <v>0</v>
+      </c>
+      <c r="AY105">
+        <v>0.15</v>
+      </c>
+      <c r="AZ105">
+        <v>0</v>
+      </c>
+      <c r="BA105">
+        <v>0</v>
+      </c>
+      <c r="BB105">
+        <v>0</v>
+      </c>
+      <c r="BC105">
+        <v>10.87</v>
+      </c>
+      <c r="BD105">
+        <v>0</v>
+      </c>
+      <c r="BE105">
+        <v>0.15</v>
+      </c>
+      <c r="BF105">
+        <v>0.15</v>
+      </c>
+      <c r="BG105">
+        <v>0.15</v>
+      </c>
     </row>
-    <row r="106" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B106" s="1">
         <v>35543</v>
@@ -16077,10 +19592,43 @@
       <c r="AV106">
         <v>0.75</v>
       </c>
+      <c r="AW106">
+        <v>14.63</v>
+      </c>
+      <c r="AX106">
+        <v>0</v>
+      </c>
+      <c r="AY106">
+        <v>0.11</v>
+      </c>
+      <c r="AZ106">
+        <v>0.09</v>
+      </c>
+      <c r="BA106">
+        <v>0</v>
+      </c>
+      <c r="BB106">
+        <v>0</v>
+      </c>
+      <c r="BC106">
+        <v>10.48</v>
+      </c>
+      <c r="BD106">
+        <v>0.04</v>
+      </c>
+      <c r="BE106">
+        <v>0.16</v>
+      </c>
+      <c r="BF106">
+        <v>0.2</v>
+      </c>
+      <c r="BG106">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="107" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B107" s="1">
         <v>35544</v>
@@ -16223,10 +19771,43 @@
       <c r="AV107">
         <v>0.75</v>
       </c>
+      <c r="AW107">
+        <v>13.72</v>
+      </c>
+      <c r="AX107">
+        <v>0</v>
+      </c>
+      <c r="AY107">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AZ107">
+        <v>0.12</v>
+      </c>
+      <c r="BA107">
+        <v>0</v>
+      </c>
+      <c r="BB107">
+        <v>0</v>
+      </c>
+      <c r="BC107">
+        <v>9.8800000000000008</v>
+      </c>
+      <c r="BD107">
+        <v>0.08</v>
+      </c>
+      <c r="BE107">
+        <v>0.11</v>
+      </c>
+      <c r="BF107">
+        <v>0.2</v>
+      </c>
+      <c r="BG107">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="108" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B108" s="1">
         <v>35545</v>
@@ -16369,10 +19950,43 @@
       <c r="AV108">
         <v>0.75</v>
       </c>
+      <c r="AW108">
+        <v>11.61</v>
+      </c>
+      <c r="AX108">
+        <v>0</v>
+      </c>
+      <c r="AY108">
+        <v>0.05</v>
+      </c>
+      <c r="AZ108">
+        <v>0.13</v>
+      </c>
+      <c r="BA108">
+        <v>0</v>
+      </c>
+      <c r="BB108">
+        <v>0</v>
+      </c>
+      <c r="BC108">
+        <v>9.4</v>
+      </c>
+      <c r="BD108">
+        <v>0.05</v>
+      </c>
+      <c r="BE108">
+        <v>0.13</v>
+      </c>
+      <c r="BF108">
+        <v>0.18</v>
+      </c>
+      <c r="BG108">
+        <v>0.18</v>
+      </c>
     </row>
-    <row r="109" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B109" s="1">
         <v>35546</v>
@@ -16515,10 +20129,43 @@
       <c r="AV109">
         <v>0.75</v>
       </c>
+      <c r="AW109">
+        <v>9.09</v>
+      </c>
+      <c r="AX109">
+        <v>0</v>
+      </c>
+      <c r="AY109">
+        <v>0.03</v>
+      </c>
+      <c r="AZ109">
+        <v>0.12</v>
+      </c>
+      <c r="BA109">
+        <v>0</v>
+      </c>
+      <c r="BB109">
+        <v>0</v>
+      </c>
+      <c r="BC109">
+        <v>8.93</v>
+      </c>
+      <c r="BD109">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="BE109">
+        <v>0.08</v>
+      </c>
+      <c r="BF109">
+        <v>0.16</v>
+      </c>
+      <c r="BG109">
+        <v>0.16</v>
+      </c>
     </row>
-    <row r="110" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B110" s="1">
         <v>35547</v>
@@ -16661,10 +20308,43 @@
       <c r="AV110">
         <v>0.75</v>
       </c>
+      <c r="AW110">
+        <v>12.76</v>
+      </c>
+      <c r="AX110">
+        <v>0</v>
+      </c>
+      <c r="AY110">
+        <v>0.04</v>
+      </c>
+      <c r="AZ110">
+        <v>0.16</v>
+      </c>
+      <c r="BA110">
+        <v>0</v>
+      </c>
+      <c r="BB110">
+        <v>0</v>
+      </c>
+      <c r="BC110">
+        <v>8.56</v>
+      </c>
+      <c r="BD110">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="BE110">
+        <v>0.06</v>
+      </c>
+      <c r="BF110">
+        <v>0.21</v>
+      </c>
+      <c r="BG110">
+        <v>0.21</v>
+      </c>
     </row>
-    <row r="111" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B111" s="1">
         <v>35548</v>
@@ -16807,10 +20487,43 @@
       <c r="AV111">
         <v>0.75</v>
       </c>
+      <c r="AW111">
+        <v>12.56</v>
+      </c>
+      <c r="AX111">
+        <v>0</v>
+      </c>
+      <c r="AY111">
+        <v>0.03</v>
+      </c>
+      <c r="AZ111">
+        <v>0.15</v>
+      </c>
+      <c r="BA111">
+        <v>0</v>
+      </c>
+      <c r="BB111">
+        <v>0</v>
+      </c>
+      <c r="BC111">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="BD111">
+        <v>0.11</v>
+      </c>
+      <c r="BE111">
+        <v>0.08</v>
+      </c>
+      <c r="BF111">
+        <v>0.19</v>
+      </c>
+      <c r="BG111">
+        <v>0.19</v>
+      </c>
     </row>
-    <row r="112" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B112" s="1">
         <v>35549</v>
@@ -16953,10 +20666,43 @@
       <c r="AV112">
         <v>0.75</v>
       </c>
+      <c r="AW112">
+        <v>12.62</v>
+      </c>
+      <c r="AX112">
+        <v>0</v>
+      </c>
+      <c r="AY112">
+        <v>0.04</v>
+      </c>
+      <c r="AZ112">
+        <v>0.15</v>
+      </c>
+      <c r="BA112">
+        <v>0</v>
+      </c>
+      <c r="BB112">
+        <v>0</v>
+      </c>
+      <c r="BC112">
+        <v>7.83</v>
+      </c>
+      <c r="BD112">
+        <v>0.09</v>
+      </c>
+      <c r="BE112">
+        <v>0.1</v>
+      </c>
+      <c r="BF112">
+        <v>0.19</v>
+      </c>
+      <c r="BG112">
+        <v>0.19</v>
+      </c>
     </row>
-    <row r="113" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B113" s="1">
         <v>35550</v>
@@ -17099,10 +20845,43 @@
       <c r="AV113">
         <v>0.75</v>
       </c>
+      <c r="AW113">
+        <v>12.03</v>
+      </c>
+      <c r="AX113">
+        <v>0</v>
+      </c>
+      <c r="AY113">
+        <v>0.04</v>
+      </c>
+      <c r="AZ113">
+        <v>0.15</v>
+      </c>
+      <c r="BA113">
+        <v>0</v>
+      </c>
+      <c r="BB113">
+        <v>0</v>
+      </c>
+      <c r="BC113">
+        <v>7.42</v>
+      </c>
+      <c r="BD113">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="BE113">
+        <v>0.11</v>
+      </c>
+      <c r="BF113">
+        <v>0.18</v>
+      </c>
+      <c r="BG113">
+        <v>0.18</v>
+      </c>
     </row>
-    <row r="114" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B114" s="1">
         <v>35551</v>
@@ -17245,10 +21024,43 @@
       <c r="AV114">
         <v>0.75</v>
       </c>
+      <c r="AW114">
+        <v>10.76</v>
+      </c>
+      <c r="AX114">
+        <v>0</v>
+      </c>
+      <c r="AY114">
+        <v>0.03</v>
+      </c>
+      <c r="AZ114">
+        <v>0.13</v>
+      </c>
+      <c r="BA114">
+        <v>0</v>
+      </c>
+      <c r="BB114">
+        <v>0</v>
+      </c>
+      <c r="BC114">
+        <v>7.04</v>
+      </c>
+      <c r="BD114">
+        <v>0.09</v>
+      </c>
+      <c r="BE114">
+        <v>0.08</v>
+      </c>
+      <c r="BF114">
+        <v>0.16</v>
+      </c>
+      <c r="BG114">
+        <v>0.16</v>
+      </c>
     </row>
-    <row r="115" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B115" s="1">
         <v>35552</v>
@@ -17391,10 +21203,43 @@
       <c r="AV115">
         <v>0.75</v>
       </c>
+      <c r="AW115">
+        <v>10.73</v>
+      </c>
+      <c r="AX115">
+        <v>0</v>
+      </c>
+      <c r="AY115">
+        <v>0.05</v>
+      </c>
+      <c r="AZ115">
+        <v>0.15</v>
+      </c>
+      <c r="BA115">
+        <v>0</v>
+      </c>
+      <c r="BB115">
+        <v>0</v>
+      </c>
+      <c r="BC115">
+        <v>6.71</v>
+      </c>
+      <c r="BD115">
+        <v>0.13</v>
+      </c>
+      <c r="BE115">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="BF115">
+        <v>0.2</v>
+      </c>
+      <c r="BG115">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="116" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B116" s="1">
         <v>35553</v>
@@ -17537,10 +21382,43 @@
       <c r="AV116">
         <v>0.75</v>
       </c>
+      <c r="AW116">
+        <v>12.82</v>
+      </c>
+      <c r="AX116">
+        <v>0</v>
+      </c>
+      <c r="AY116">
+        <v>0.05</v>
+      </c>
+      <c r="AZ116">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="BA116">
+        <v>0</v>
+      </c>
+      <c r="BB116">
+        <v>0</v>
+      </c>
+      <c r="BC116">
+        <v>8.8699999999999992</v>
+      </c>
+      <c r="BD116">
+        <v>0.13</v>
+      </c>
+      <c r="BE116">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="BF116">
+        <v>0.19</v>
+      </c>
+      <c r="BG116">
+        <v>0.19</v>
+      </c>
     </row>
-    <row r="117" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B117" s="1">
         <v>35554</v>
@@ -17683,10 +21561,43 @@
       <c r="AV117">
         <v>0.75</v>
       </c>
+      <c r="AW117">
+        <v>10.77</v>
+      </c>
+      <c r="AX117">
+        <v>0</v>
+      </c>
+      <c r="AY117">
+        <v>0.06</v>
+      </c>
+      <c r="AZ117">
+        <v>0.16</v>
+      </c>
+      <c r="BA117">
+        <v>0</v>
+      </c>
+      <c r="BB117">
+        <v>0</v>
+      </c>
+      <c r="BC117">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="BD117">
+        <v>0.16</v>
+      </c>
+      <c r="BE117">
+        <v>0.06</v>
+      </c>
+      <c r="BF117">
+        <v>0.22</v>
+      </c>
+      <c r="BG117">
+        <v>0.22</v>
+      </c>
     </row>
-    <row r="118" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B118" s="1">
         <v>35555</v>
@@ -17829,10 +21740,43 @@
       <c r="AV118">
         <v>0.75</v>
       </c>
+      <c r="AW118">
+        <v>10.18</v>
+      </c>
+      <c r="AX118">
+        <v>0</v>
+      </c>
+      <c r="AY118">
+        <v>0.06</v>
+      </c>
+      <c r="AZ118">
+        <v>0.17</v>
+      </c>
+      <c r="BA118">
+        <v>0</v>
+      </c>
+      <c r="BB118">
+        <v>0</v>
+      </c>
+      <c r="BC118">
+        <v>8.4499999999999993</v>
+      </c>
+      <c r="BD118">
+        <v>0.17</v>
+      </c>
+      <c r="BE118">
+        <v>0.06</v>
+      </c>
+      <c r="BF118">
+        <v>0.23</v>
+      </c>
+      <c r="BG118">
+        <v>0.23</v>
+      </c>
     </row>
-    <row r="119" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B119" s="1">
         <v>35556</v>
@@ -17975,10 +21919,43 @@
       <c r="AV119">
         <v>0.74</v>
       </c>
+      <c r="AW119">
+        <v>4.97</v>
+      </c>
+      <c r="AX119">
+        <v>0</v>
+      </c>
+      <c r="AY119">
+        <v>0</v>
+      </c>
+      <c r="AZ119">
+        <v>0</v>
+      </c>
+      <c r="BA119">
+        <v>0</v>
+      </c>
+      <c r="BB119">
+        <v>0</v>
+      </c>
+      <c r="BC119">
+        <v>8.17</v>
+      </c>
+      <c r="BD119">
+        <v>0</v>
+      </c>
+      <c r="BE119">
+        <v>0</v>
+      </c>
+      <c r="BF119">
+        <v>0</v>
+      </c>
+      <c r="BG119">
+        <v>0</v>
+      </c>
     </row>
-    <row r="120" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B120" s="1">
         <v>35557</v>
@@ -18121,10 +22098,43 @@
       <c r="AV120">
         <v>0.73</v>
       </c>
+      <c r="AW120">
+        <v>10.32</v>
+      </c>
+      <c r="AX120">
+        <v>0</v>
+      </c>
+      <c r="AY120">
+        <v>0</v>
+      </c>
+      <c r="AZ120">
+        <v>0</v>
+      </c>
+      <c r="BA120">
+        <v>0</v>
+      </c>
+      <c r="BB120">
+        <v>0</v>
+      </c>
+      <c r="BC120">
+        <v>8.2200000000000006</v>
+      </c>
+      <c r="BD120">
+        <v>0</v>
+      </c>
+      <c r="BE120">
+        <v>0</v>
+      </c>
+      <c r="BF120">
+        <v>0</v>
+      </c>
+      <c r="BG120">
+        <v>0</v>
+      </c>
     </row>
-    <row r="121" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B121" s="1">
         <v>35558</v>
@@ -18267,10 +22277,43 @@
       <c r="AV121">
         <v>0.71899999999999997</v>
       </c>
+      <c r="AW121">
+        <v>8.57</v>
+      </c>
+      <c r="AX121">
+        <v>0</v>
+      </c>
+      <c r="AY121">
+        <v>0</v>
+      </c>
+      <c r="AZ121">
+        <v>0</v>
+      </c>
+      <c r="BA121">
+        <v>0</v>
+      </c>
+      <c r="BB121">
+        <v>0</v>
+      </c>
+      <c r="BC121">
+        <v>8.11</v>
+      </c>
+      <c r="BD121">
+        <v>0</v>
+      </c>
+      <c r="BE121">
+        <v>0</v>
+      </c>
+      <c r="BF121">
+        <v>0</v>
+      </c>
+      <c r="BG121">
+        <v>0</v>
+      </c>
     </row>
-    <row r="122" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B122" s="1">
         <v>35559</v>
@@ -18413,10 +22456,43 @@
       <c r="AV122">
         <v>0.71099999999999997</v>
       </c>
+      <c r="AW122">
+        <v>5.25</v>
+      </c>
+      <c r="AX122">
+        <v>0</v>
+      </c>
+      <c r="AY122">
+        <v>0</v>
+      </c>
+      <c r="AZ122">
+        <v>0</v>
+      </c>
+      <c r="BA122">
+        <v>0</v>
+      </c>
+      <c r="BB122">
+        <v>0</v>
+      </c>
+      <c r="BC122">
+        <v>9.19</v>
+      </c>
+      <c r="BD122">
+        <v>0</v>
+      </c>
+      <c r="BE122">
+        <v>0</v>
+      </c>
+      <c r="BF122">
+        <v>0</v>
+      </c>
+      <c r="BG122">
+        <v>0</v>
+      </c>
     </row>
-    <row r="123" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B123" s="1">
         <v>35560</v>
@@ -18559,10 +22635,43 @@
       <c r="AV123">
         <v>0.70599999999999996</v>
       </c>
+      <c r="AW123">
+        <v>7.62</v>
+      </c>
+      <c r="AX123">
+        <v>0</v>
+      </c>
+      <c r="AY123">
+        <v>0</v>
+      </c>
+      <c r="AZ123">
+        <v>0</v>
+      </c>
+      <c r="BA123">
+        <v>0</v>
+      </c>
+      <c r="BB123">
+        <v>0</v>
+      </c>
+      <c r="BC123">
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="BD123">
+        <v>0</v>
+      </c>
+      <c r="BE123">
+        <v>0</v>
+      </c>
+      <c r="BF123">
+        <v>0</v>
+      </c>
+      <c r="BG123">
+        <v>0</v>
+      </c>
     </row>
-    <row r="124" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B124" s="1">
         <v>35561</v>
@@ -18705,10 +22814,43 @@
       <c r="AV124">
         <v>0.70299999999999996</v>
       </c>
+      <c r="AW124">
+        <v>4.41</v>
+      </c>
+      <c r="AX124">
+        <v>0</v>
+      </c>
+      <c r="AY124">
+        <v>0</v>
+      </c>
+      <c r="AZ124">
+        <v>0</v>
+      </c>
+      <c r="BA124">
+        <v>0</v>
+      </c>
+      <c r="BB124">
+        <v>0</v>
+      </c>
+      <c r="BC124">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="BD124">
+        <v>0</v>
+      </c>
+      <c r="BE124">
+        <v>0</v>
+      </c>
+      <c r="BF124">
+        <v>0</v>
+      </c>
+      <c r="BG124">
+        <v>0</v>
+      </c>
     </row>
-    <row r="125" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B125" s="1">
         <v>35562</v>
@@ -18851,10 +22993,43 @@
       <c r="AV125">
         <v>0.69699999999999995</v>
       </c>
+      <c r="AW125">
+        <v>6.75</v>
+      </c>
+      <c r="AX125">
+        <v>0</v>
+      </c>
+      <c r="AY125">
+        <v>0</v>
+      </c>
+      <c r="AZ125">
+        <v>0</v>
+      </c>
+      <c r="BA125">
+        <v>0</v>
+      </c>
+      <c r="BB125">
+        <v>0</v>
+      </c>
+      <c r="BC125">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="BD125">
+        <v>0</v>
+      </c>
+      <c r="BE125">
+        <v>0</v>
+      </c>
+      <c r="BF125">
+        <v>0</v>
+      </c>
+      <c r="BG125">
+        <v>0</v>
+      </c>
     </row>
-    <row r="126" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B126" s="1">
         <v>35563</v>
@@ -18997,10 +23172,43 @@
       <c r="AV126">
         <v>0.69199999999999995</v>
       </c>
+      <c r="AW126">
+        <v>6.7</v>
+      </c>
+      <c r="AX126">
+        <v>0</v>
+      </c>
+      <c r="AY126">
+        <v>0</v>
+      </c>
+      <c r="AZ126">
+        <v>0</v>
+      </c>
+      <c r="BA126">
+        <v>0</v>
+      </c>
+      <c r="BB126">
+        <v>0</v>
+      </c>
+      <c r="BC126">
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="BD126">
+        <v>0</v>
+      </c>
+      <c r="BE126">
+        <v>0</v>
+      </c>
+      <c r="BF126">
+        <v>0</v>
+      </c>
+      <c r="BG126">
+        <v>0</v>
+      </c>
     </row>
-    <row r="127" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B127" s="1">
         <v>35564</v>
@@ -19143,10 +23351,43 @@
       <c r="AV127">
         <v>0.68600000000000005</v>
       </c>
+      <c r="AW127">
+        <v>7.08</v>
+      </c>
+      <c r="AX127">
+        <v>0</v>
+      </c>
+      <c r="AY127">
+        <v>0</v>
+      </c>
+      <c r="AZ127">
+        <v>0</v>
+      </c>
+      <c r="BA127">
+        <v>0</v>
+      </c>
+      <c r="BB127">
+        <v>0</v>
+      </c>
+      <c r="BC127">
+        <v>9.24</v>
+      </c>
+      <c r="BD127">
+        <v>0</v>
+      </c>
+      <c r="BE127">
+        <v>0</v>
+      </c>
+      <c r="BF127">
+        <v>0</v>
+      </c>
+      <c r="BG127">
+        <v>0</v>
+      </c>
     </row>
-    <row r="128" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B128" s="1">
         <v>35565</v>
@@ -19289,10 +23530,43 @@
       <c r="AV128">
         <v>0.68100000000000005</v>
       </c>
+      <c r="AW128">
+        <v>6.27</v>
+      </c>
+      <c r="AX128">
+        <v>0</v>
+      </c>
+      <c r="AY128">
+        <v>0</v>
+      </c>
+      <c r="AZ128">
+        <v>0</v>
+      </c>
+      <c r="BA128">
+        <v>0</v>
+      </c>
+      <c r="BB128">
+        <v>0</v>
+      </c>
+      <c r="BC128">
+        <v>9.1300000000000008</v>
+      </c>
+      <c r="BD128">
+        <v>0</v>
+      </c>
+      <c r="BE128">
+        <v>0</v>
+      </c>
+      <c r="BF128">
+        <v>0</v>
+      </c>
+      <c r="BG128">
+        <v>0</v>
+      </c>
     </row>
-    <row r="129" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B129" s="1">
         <v>35566</v>
@@ -19435,10 +23709,43 @@
       <c r="AV129">
         <v>0.68100000000000005</v>
       </c>
+      <c r="AW129">
+        <v>4.59</v>
+      </c>
+      <c r="AX129">
+        <v>0</v>
+      </c>
+      <c r="AY129">
+        <v>0</v>
+      </c>
+      <c r="AZ129">
+        <v>0</v>
+      </c>
+      <c r="BA129">
+        <v>0</v>
+      </c>
+      <c r="BB129">
+        <v>0</v>
+      </c>
+      <c r="BC129">
+        <v>9.01</v>
+      </c>
+      <c r="BD129">
+        <v>0</v>
+      </c>
+      <c r="BE129">
+        <v>0</v>
+      </c>
+      <c r="BF129">
+        <v>0</v>
+      </c>
+      <c r="BG129">
+        <v>0</v>
+      </c>
     </row>
-    <row r="130" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B130" s="1">
         <v>35567</v>
@@ -19581,10 +23888,43 @@
       <c r="AV130">
         <v>0.68100000000000005</v>
       </c>
+      <c r="AW130">
+        <v>3.14</v>
+      </c>
+      <c r="AX130">
+        <v>0</v>
+      </c>
+      <c r="AY130">
+        <v>0</v>
+      </c>
+      <c r="AZ130">
+        <v>0</v>
+      </c>
+      <c r="BA130">
+        <v>0</v>
+      </c>
+      <c r="BB130">
+        <v>0</v>
+      </c>
+      <c r="BC130">
+        <v>8.9700000000000006</v>
+      </c>
+      <c r="BD130">
+        <v>0</v>
+      </c>
+      <c r="BE130">
+        <v>0</v>
+      </c>
+      <c r="BF130">
+        <v>0</v>
+      </c>
+      <c r="BG130">
+        <v>0</v>
+      </c>
     </row>
-    <row r="131" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B131" s="1">
         <v>35568</v>
@@ -19727,10 +24067,43 @@
       <c r="AV131">
         <v>0.67900000000000005</v>
       </c>
+      <c r="AW131">
+        <v>6.12</v>
+      </c>
+      <c r="AX131">
+        <v>0</v>
+      </c>
+      <c r="AY131">
+        <v>0</v>
+      </c>
+      <c r="AZ131">
+        <v>0</v>
+      </c>
+      <c r="BA131">
+        <v>0</v>
+      </c>
+      <c r="BB131">
+        <v>0</v>
+      </c>
+      <c r="BC131">
+        <v>9.34</v>
+      </c>
+      <c r="BD131">
+        <v>0</v>
+      </c>
+      <c r="BE131">
+        <v>0</v>
+      </c>
+      <c r="BF131">
+        <v>0</v>
+      </c>
+      <c r="BG131">
+        <v>0</v>
+      </c>
     </row>
-    <row r="132" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B132" s="1">
         <v>35569</v>
@@ -19873,10 +24246,43 @@
       <c r="AV132">
         <v>0.67500000000000004</v>
       </c>
+      <c r="AW132">
+        <v>4.24</v>
+      </c>
+      <c r="AX132">
+        <v>0</v>
+      </c>
+      <c r="AY132">
+        <v>0</v>
+      </c>
+      <c r="AZ132">
+        <v>0</v>
+      </c>
+      <c r="BA132">
+        <v>0</v>
+      </c>
+      <c r="BB132">
+        <v>0</v>
+      </c>
+      <c r="BC132">
+        <v>9.3699999999999992</v>
+      </c>
+      <c r="BD132">
+        <v>0</v>
+      </c>
+      <c r="BE132">
+        <v>0</v>
+      </c>
+      <c r="BF132">
+        <v>0</v>
+      </c>
+      <c r="BG132">
+        <v>0</v>
+      </c>
     </row>
-    <row r="133" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B133" s="1">
         <v>35570</v>
@@ -20019,10 +24425,43 @@
       <c r="AV133">
         <v>0.67100000000000004</v>
       </c>
+      <c r="AW133">
+        <v>3.69</v>
+      </c>
+      <c r="AX133">
+        <v>0</v>
+      </c>
+      <c r="AY133">
+        <v>0</v>
+      </c>
+      <c r="AZ133">
+        <v>0</v>
+      </c>
+      <c r="BA133">
+        <v>0</v>
+      </c>
+      <c r="BB133">
+        <v>0</v>
+      </c>
+      <c r="BC133">
+        <v>9.39</v>
+      </c>
+      <c r="BD133">
+        <v>0</v>
+      </c>
+      <c r="BE133">
+        <v>0</v>
+      </c>
+      <c r="BF133">
+        <v>0</v>
+      </c>
+      <c r="BG133">
+        <v>0</v>
+      </c>
     </row>
-    <row r="134" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B134" s="1">
         <v>35571</v>
@@ -20165,10 +24604,43 @@
       <c r="AV134">
         <v>0.66600000000000004</v>
       </c>
+      <c r="AW134">
+        <v>4.3</v>
+      </c>
+      <c r="AX134">
+        <v>0</v>
+      </c>
+      <c r="AY134">
+        <v>0</v>
+      </c>
+      <c r="AZ134">
+        <v>0</v>
+      </c>
+      <c r="BA134">
+        <v>0</v>
+      </c>
+      <c r="BB134">
+        <v>0</v>
+      </c>
+      <c r="BC134">
+        <v>9.3800000000000008</v>
+      </c>
+      <c r="BD134">
+        <v>0</v>
+      </c>
+      <c r="BE134">
+        <v>0</v>
+      </c>
+      <c r="BF134">
+        <v>0</v>
+      </c>
+      <c r="BG134">
+        <v>0</v>
+      </c>
     </row>
-    <row r="135" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B135" s="1">
         <v>35572</v>
@@ -20311,10 +24783,43 @@
       <c r="AV135">
         <v>0.66200000000000003</v>
       </c>
+      <c r="AW135">
+        <v>4.28</v>
+      </c>
+      <c r="AX135">
+        <v>0</v>
+      </c>
+      <c r="AY135">
+        <v>0</v>
+      </c>
+      <c r="AZ135">
+        <v>0</v>
+      </c>
+      <c r="BA135">
+        <v>0</v>
+      </c>
+      <c r="BB135">
+        <v>0</v>
+      </c>
+      <c r="BC135">
+        <v>9.34</v>
+      </c>
+      <c r="BD135">
+        <v>0</v>
+      </c>
+      <c r="BE135">
+        <v>0</v>
+      </c>
+      <c r="BF135">
+        <v>0</v>
+      </c>
+      <c r="BG135">
+        <v>0</v>
+      </c>
     </row>
-    <row r="136" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B136" s="1">
         <v>35573</v>
@@ -20457,10 +24962,43 @@
       <c r="AV136">
         <v>0.65800000000000003</v>
       </c>
+      <c r="AW136">
+        <v>3.29</v>
+      </c>
+      <c r="AX136">
+        <v>0</v>
+      </c>
+      <c r="AY136">
+        <v>0</v>
+      </c>
+      <c r="AZ136">
+        <v>0</v>
+      </c>
+      <c r="BA136">
+        <v>0</v>
+      </c>
+      <c r="BB136">
+        <v>0</v>
+      </c>
+      <c r="BC136">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="BD136">
+        <v>0</v>
+      </c>
+      <c r="BE136">
+        <v>0</v>
+      </c>
+      <c r="BF136">
+        <v>0</v>
+      </c>
+      <c r="BG136">
+        <v>0</v>
+      </c>
     </row>
-    <row r="137" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B137" s="1">
         <v>35574</v>
@@ -20603,10 +25141,43 @@
       <c r="AV137">
         <v>0.65600000000000003</v>
       </c>
+      <c r="AW137">
+        <v>2.04</v>
+      </c>
+      <c r="AX137">
+        <v>0</v>
+      </c>
+      <c r="AY137">
+        <v>0</v>
+      </c>
+      <c r="AZ137">
+        <v>0</v>
+      </c>
+      <c r="BA137">
+        <v>0</v>
+      </c>
+      <c r="BB137">
+        <v>0</v>
+      </c>
+      <c r="BC137">
+        <v>9.24</v>
+      </c>
+      <c r="BD137">
+        <v>0</v>
+      </c>
+      <c r="BE137">
+        <v>0</v>
+      </c>
+      <c r="BF137">
+        <v>0</v>
+      </c>
+      <c r="BG137">
+        <v>0</v>
+      </c>
     </row>
-    <row r="138" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B138" s="1">
         <v>35575</v>
@@ -20749,10 +25320,43 @@
       <c r="AV138">
         <v>0.65200000000000002</v>
       </c>
+      <c r="AW138">
+        <v>4</v>
+      </c>
+      <c r="AX138">
+        <v>0</v>
+      </c>
+      <c r="AY138">
+        <v>0</v>
+      </c>
+      <c r="AZ138">
+        <v>0</v>
+      </c>
+      <c r="BA138">
+        <v>0</v>
+      </c>
+      <c r="BB138">
+        <v>0</v>
+      </c>
+      <c r="BC138">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="BD138">
+        <v>0</v>
+      </c>
+      <c r="BE138">
+        <v>0</v>
+      </c>
+      <c r="BF138">
+        <v>0</v>
+      </c>
+      <c r="BG138">
+        <v>0</v>
+      </c>
     </row>
-    <row r="139" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B139" s="1">
         <v>35576</v>
@@ -20895,10 +25499,43 @@
       <c r="AV139">
         <v>0.64700000000000002</v>
       </c>
+      <c r="AW139">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="AX139">
+        <v>0</v>
+      </c>
+      <c r="AY139">
+        <v>0</v>
+      </c>
+      <c r="AZ139">
+        <v>0</v>
+      </c>
+      <c r="BA139">
+        <v>0</v>
+      </c>
+      <c r="BB139">
+        <v>0</v>
+      </c>
+      <c r="BC139">
+        <v>9.1199999999999992</v>
+      </c>
+      <c r="BD139">
+        <v>0</v>
+      </c>
+      <c r="BE139">
+        <v>0</v>
+      </c>
+      <c r="BF139">
+        <v>0</v>
+      </c>
+      <c r="BG139">
+        <v>0</v>
+      </c>
     </row>
-    <row r="140" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B140" s="1">
         <v>35577</v>
@@ -21040,6 +25677,39 @@
       </c>
       <c r="AV140">
         <v>0.64200000000000002</v>
+      </c>
+      <c r="AW140">
+        <v>4.58</v>
+      </c>
+      <c r="AX140">
+        <v>0</v>
+      </c>
+      <c r="AY140">
+        <v>0</v>
+      </c>
+      <c r="AZ140">
+        <v>0</v>
+      </c>
+      <c r="BA140">
+        <v>0</v>
+      </c>
+      <c r="BB140">
+        <v>0</v>
+      </c>
+      <c r="BC140">
+        <v>8.99</v>
+      </c>
+      <c r="BD140">
+        <v>0</v>
+      </c>
+      <c r="BE140">
+        <v>0</v>
+      </c>
+      <c r="BF140">
+        <v>0</v>
+      </c>
+      <c r="BG140">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
